--- a/tabe.xlsx
+++ b/tabe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F0465\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B05DA4D-AF37-495F-B237-76EA69D5097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96735AAF-DDF3-45DE-8BD8-F4CE954D6B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="450" windowWidth="26220" windowHeight="15150" firstSheet="1" activeTab="9" xr2:uid="{9D00AE84-927D-49F7-A44A-E9E94149C6D0}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="6" xr2:uid="{9D00AE84-927D-49F7-A44A-E9E94149C6D0}"/>
   </bookViews>
   <sheets>
     <sheet name="実装機能" sheetId="16" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Sheet3" sheetId="44" r:id="rId4"/>
     <sheet name="画面一覧" sheetId="18" r:id="rId5"/>
     <sheet name="画面遷移 (会員)" sheetId="37" r:id="rId6"/>
-    <sheet name="画面遷移 (管理者)" sheetId="39" r:id="rId7"/>
-    <sheet name="フローチャート" sheetId="43" r:id="rId8"/>
-    <sheet name="ER図" sheetId="24" r:id="rId9"/>
-    <sheet name="データベース設計" sheetId="8" r:id="rId10"/>
-    <sheet name="ファイル一覧(会員)" sheetId="41" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="45" r:id="rId7"/>
+    <sheet name="画面遷移 (管理者)" sheetId="39" r:id="rId8"/>
+    <sheet name="フローチャート" sheetId="43" r:id="rId9"/>
+    <sheet name="ER図" sheetId="24" r:id="rId10"/>
+    <sheet name="データベース設計" sheetId="8" r:id="rId11"/>
+    <sheet name="ファイル一覧(会員)" sheetId="41" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'画面遷移 (会員)'!$A$1:$CH$64</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="573">
   <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
@@ -3907,12 +3908,508 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>restaurants_categories</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1"/>
+    <t>// ボタンのOnSelectプロパティ</t>
+  </si>
+  <si>
+    <t>Set(varAll, true);</t>
+  </si>
+  <si>
+    <t>Set(varButtom1, false);</t>
+  </si>
+  <si>
+    <t>Set(varButtom2, false);</t>
+  </si>
+  <si>
+    <t>Set(varButtom3, false);</t>
+  </si>
+  <si>
+    <t>ClearCollect(colList_Temp, [@'ヌ11　期限メールリスト']);</t>
+  </si>
+  <si>
+    <t>ClearCollect(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    colList_Temp,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TextSearchBox1.Text = ""　&amp;&amp; TextSearchBox1_1.Text = "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [@'ヌ11　期限メールリスト'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TextSearchBox1.Text &lt;&gt; "" &amp;&amp; TextSearchBox1_1.Text = "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Search(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            colList_Temp, TextSearchBox1.Text,件名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TextSearchBox1_1.Text &lt;&gt; "" &amp;&amp; TextSearchBox1.Text = "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            colList_Temp, TextSearchBox1_1.Text,'機種・分類'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TextSearchBox1.Text &lt;&gt; "" &amp;&amp; TextSearchBox1_1.Text &lt;&gt; "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Search(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                colList_Temp,TextSearchBox1.Text,件名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TextSearchBox1_1.Text,'機種・分類'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    )</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>If(varButtom1, ClearCollect(colList_Temp, Filter(colList_Temp, '承認・完了'.Value = "未承認")));</t>
+  </si>
+  <si>
+    <t>If(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    varButtom2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ClearCollect(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        colList_Temp,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Filter(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            colList_Temp,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Switch(Teamst,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "待ちすべて",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Switch(Getgroup.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ機種.Value &lt;&gt; "【照査済み】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ機種.Value &lt;&gt; "【照査済み】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ制御.Value &lt;&gt; "【照査済み】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ制御.Value &lt;&gt; "【照査済み】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディシステム.Value &lt;&gt; "【照査済み】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value &lt;&gt; "【関係なし】" &amp;&amp; コネクテッド.Value &lt;&gt; "【照査済み】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value &lt;&gt; "【関係なし】" &amp;&amp; CGW.Value &lt;&gt; "【照査済み】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value &lt;&gt; "【関係なし】" &amp;&amp; 開発プロセス.Value &lt;&gt; "【照査済み】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "グループ長",'承認・完了'.Value = "未承認" &amp;&amp; 発行フラグ_承認者 = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "担当待ちのみ",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "照査待ちのみ",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Switch(Getgroup.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【照査待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【照査待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【照査待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【照査待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【照査待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【照査待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value = "【照査待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【照査待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "照査&amp;担当",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【照査待ち】" &amp;&amp; ボディ機種.Value = "【担当待ち】"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【照査待ち】" &amp;&amp; セーフ機種.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【照査待ち】" &amp;&amp; ボディ制御.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【照査待ち】" &amp;&amp; セーフ制御.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【照査待ち】" &amp;&amp; ボディシステム.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【照査待ち】" &amp;&amp; コネクテッド.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value = "【照査待ち】" &amp;&amp; CGW.Value = "【照査済み】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【照査待ち】" &amp;&amp; 開発プロセス.Value = "【担当待ち】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                "担当選定",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【担当選定】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【担当選定】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【担当選定】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【担当選定】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【担当選定】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【担当選定】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value = "【担当選定】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【担当選定】",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                )                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    varButtom3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ機種.Value &lt;&gt; "【照査済み】"&amp;&amp; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    GetEmail in Concat(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Switch(ボディ機種.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　ボディ機種回覧リスト',ID = '回覧ルート(ボディ機種)').担当者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　ボディ機種回覧リスト',ID = '回覧ルート(ボディ機種)').照査者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　ボディ機種回覧リスト',Title = "担当選定者").照査者),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Email,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ";"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ機種.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Switch(セーフ機種.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　セーフ機種回覧リスト',ID = '回覧ルート(セーフ機種)').担当者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　セーフ機種回覧リスト',ID = '回覧ルート(セーフ機種)').照査者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　セーフ機種回覧リスト',Title = "担当選定者").照査者),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ制御.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Switch(ボディ制御.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　ボディ制御回覧リスト',ID = '回覧ルート(ボディ制御)').担当者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　ボディ制御回覧リスト',ID = '回覧ルート(ボディ制御)').照査者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　ボディ制御回覧リスト',回覧リスト名 = "担当選定者").照査者),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ制御.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Switch(セーフ制御.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　セーフ制御回覧リスト',ID = '回覧ルート(セーフ制御)').担当者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　セーフ制御回覧リスト',ID = '回覧ルート(セーフ制御)').照査者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　セーフ制御回覧リスト',Title = "担当選定者").照査者),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディシステム.Value &lt;&gt; "【照査済み】"&amp;&amp;                          　                      GetEmail in Concat(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Switch(ボディシステム.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　ボディシステム回覧リスト',ID = '回覧ルート(ボディシステム)').担当者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　ボディシステム回覧リスト',ID = '回覧ルート(ボディシステム)').照査者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　ボディシステム回覧リスト',Title = "担当選定者").照査者),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value &lt;&gt; "【関係なし】" &amp;&amp; コネクテッド.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Switch(コネクテッド.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　コネクテッド回覧リスト',ID = '回覧ルート(コネクテッド)').担当者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　コネクテッド回覧リスト',ID = '回覧ルート(コネクテッド)').照査者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　コネクテッド回覧リスト',Title = "担当選定者").照査者),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value &lt;&gt; "【関係なし】" &amp;&amp; CGW.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Switch(CGW.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　CGW回覧リスト',ID = '回覧ルート(CGW)').担当者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　CGW回覧リスト',ID = '回覧ルート(CGW)').照査者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　CGW回覧リスト',Title = "担当選定者").照査者),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value &lt;&gt; "【関係なし】" &amp;&amp; 開発プロセス.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Switch(開発プロセス.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　開発プロセス回覧リスト',ID = '回覧ルート(開発プロセス)').担当者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　開発プロセス回覧リスト',ID = '回覧ルート(開発プロセス)').照査者,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　開発プロセス回覧リスト',タイトル = "担当選定者").照査者),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "グループ長",'承認・完了'.Value = "未承認" &amp;&amp; 発行フラグ_承認者 = 1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Switch(Getgroup.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【担当待ち】"&amp;&amp; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【担当待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【担当待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【担当待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【担当待ち】"&amp;&amp;                          　                      GetEmail in Concat(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【担当待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value = "【担当待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【担当待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【照査待ち】"&amp;&amp; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【照査待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【照査待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【照査待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【照査待ち】"&amp;&amp;                          　                      GetEmail in Concat(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【照査待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value = "【照査待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【照査待ち】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ機種.Value &lt;&gt; "【照査済み】"&amp;&amp; ボディ機種.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ機種.Value &lt;&gt; "【照査済み】"&amp;&amp; セーフ機種.Value &lt;&gt; "【担当選定】"&amp;&amp;　</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ制御.Value &lt;&gt; "【照査済み】"&amp;&amp; ボディ制御.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ制御.Value &lt;&gt; "【照査済み】"&amp;&amp; セーフ制御.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディシステム.Value &lt;&gt; "【照査済み】"&amp;&amp; ボディシステム.Value &lt;&gt; "【担当選定】"&amp;&amp;                          　                      GetEmail in Concat(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value &lt;&gt; "【関係なし】" &amp;&amp; コネクテッド.Value &lt;&gt; "【照査済み】"&amp;&amp; コネクテッド.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value &lt;&gt; "【関係なし】" &amp;&amp; CGW.Value &lt;&gt; "【照査済み】"&amp;&amp; CGW.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value &lt;&gt; "【関係なし】" &amp;&amp; 開発プロセス.Value &lt;&gt; "【照査済み】"&amp;&amp; 開発プロセス.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Switch(Getgroup.Value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【担当選定】"&amp;&amp; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【担当選定】"&amp;&amp;                          　                      GetEmail in Concat(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "CGW",CGW.Value = "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【担当選定】"&amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                )                             </t>
+  </si>
+  <si>
+    <t>ClearCollect(colList_Temp, FirstN(colList_Temp, If(TextInput1.Text = "", 100,Value(TextInput1.Text))));</t>
+  </si>
+  <si>
+    <t>ClearCollect(colList,colList_Temp);</t>
   </si>
 </sst>
 </file>
@@ -4001,7 +4498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4141,53 +4638,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4252,15 +4709,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4279,8 +4727,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4311,129 +4852,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14523,6 +14941,72 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52AEDAA-0BC2-435A-B3E7-09B8E62CA211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17477814" cy="7492253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14972,14 +15456,67 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B4563-B9B2-4E63-9055-2BF4A19DC52A}">
+  <sheetPr codeName="Sheet3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:AO1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BY22" sqref="BX22:BY22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="3.375" style="31"/>
+    <col min="4" max="4" width="3.375" style="32"/>
+    <col min="5" max="5" width="3.375" style="33"/>
+    <col min="6" max="6" width="3.375" style="31"/>
+    <col min="7" max="7" width="3.375" style="34"/>
+    <col min="8" max="8" width="3.375" style="32"/>
+    <col min="9" max="9" width="3.375" style="35"/>
+    <col min="10" max="10" width="3.375" style="31"/>
+    <col min="11" max="11" width="3.375" style="32"/>
+    <col min="12" max="12" width="3.375" style="33"/>
+    <col min="13" max="14" width="3.375" style="31"/>
+    <col min="15" max="15" width="3.375" style="34"/>
+    <col min="16" max="16" width="3.375" style="31"/>
+    <col min="17" max="17" width="3.375" style="36"/>
+    <col min="18" max="22" width="3.375" style="31"/>
+    <col min="23" max="23" width="3.375" style="34"/>
+    <col min="24" max="24" width="3.375" style="31"/>
+    <col min="25" max="25" width="3.375" style="36"/>
+    <col min="26" max="30" width="3.375" style="31"/>
+    <col min="31" max="31" width="3.375" style="34"/>
+    <col min="32" max="32" width="3.375" style="31"/>
+    <col min="33" max="33" width="3.375" style="36"/>
+    <col min="34" max="38" width="3.375" style="31"/>
+    <col min="39" max="39" width="3.375" style="34"/>
+    <col min="40" max="40" width="3.375" style="31"/>
+    <col min="41" max="41" width="3.375" style="36"/>
+    <col min="42" max="16384" width="3.375" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DAFD53-5D04-4CC0-86B6-196174E06058}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15545,85 +16082,85 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="3" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>198</v>
+      <c r="A50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>13</v>
+      <c r="A51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>16</v>
@@ -15632,188 +16169,188 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" s="3" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>13</v>
+      <c r="D57" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="3" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="1" t="s">
-        <v>39</v>
+      <c r="A67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>13</v>
+      <c r="A68" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>16</v>
@@ -15824,102 +16361,102 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="3" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
-        <v>124</v>
+      <c r="A75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>13</v>
+      <c r="A76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>18</v>
@@ -15927,191 +16464,191 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="3" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
-        <v>126</v>
+      <c r="A84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>13</v>
+      <c r="A85" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="3" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
-        <v>135</v>
+      <c r="A91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>13</v>
+      <c r="A92" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>18</v>
@@ -16119,13 +16656,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>18</v>
@@ -16133,13 +16670,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>18</v>
@@ -16147,85 +16684,85 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="3" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
-        <v>337</v>
+      <c r="A103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>13</v>
+      <c r="A104" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>32</v>
+        <v>340</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>16</v>
@@ -16236,43 +16773,29 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16284,8 +16807,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618CE8C-CA72-4F71-B5FB-2C531F7B8D5F}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16308,22 +16832,22 @@
       <c r="B1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>330</v>
       </c>
     </row>
@@ -16334,38 +16858,38 @@
       <c r="B3" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>327</v>
       </c>
     </row>
@@ -16376,10 +16900,10 @@
       <c r="B6" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>328</v>
       </c>
     </row>
@@ -16390,24 +16914,24 @@
       <c r="B7" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>330</v>
       </c>
     </row>
@@ -16418,24 +16942,24 @@
       <c r="B9" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="24" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>331</v>
       </c>
     </row>
@@ -16446,10 +16970,10 @@
       <c r="B11" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>331</v>
       </c>
     </row>
@@ -16460,10 +16984,10 @@
       <c r="B12" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>332</v>
       </c>
     </row>
@@ -16474,66 +16998,66 @@
       <c r="B13" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="26" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="26" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="26" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
         <v>404</v>
       </c>
     </row>
@@ -16544,10 +17068,10 @@
       <c r="B18" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="24" t="s">
         <v>330</v>
       </c>
     </row>
@@ -16558,10 +17082,10 @@
       <c r="B19" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="24" t="s">
         <v>331</v>
       </c>
     </row>
@@ -16572,66 +17096,66 @@
       <c r="B20" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="26" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="26" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="26" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="26" t="s">
         <v>330</v>
       </c>
     </row>
@@ -16644,6 +17168,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FDCEA1-298B-47C4-8441-242952E2DF8D}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16667,14 +17192,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>40</v>
       </c>
     </row>
@@ -16682,7 +17207,7 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -16696,7 +17221,7 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
@@ -16708,7 +17233,7 @@
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
@@ -16720,7 +17245,7 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="7" t="s">
         <v>346</v>
       </c>
@@ -16732,7 +17257,7 @@
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
@@ -16744,7 +17269,7 @@
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
         <v>344</v>
       </c>
@@ -16756,7 +17281,7 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
@@ -16768,7 +17293,7 @@
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="40" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -16782,7 +17307,7 @@
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="7" t="s">
         <v>296</v>
       </c>
@@ -16794,7 +17319,7 @@
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>45</v>
       </c>
@@ -16806,7 +17331,7 @@
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="40" t="s">
         <v>148</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -16820,7 +17345,7 @@
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="7" t="s">
         <v>151</v>
       </c>
@@ -16832,7 +17357,7 @@
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="7" t="s">
         <v>152</v>
       </c>
@@ -16844,7 +17369,7 @@
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="7" t="s">
         <v>153</v>
       </c>
@@ -16856,7 +17381,7 @@
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -16870,7 +17395,7 @@
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="7" t="s">
         <v>154</v>
       </c>
@@ -16882,7 +17407,7 @@
       <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="7" t="s">
         <v>155</v>
       </c>
@@ -16894,7 +17419,7 @@
       <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="7" t="s">
         <v>156</v>
       </c>
@@ -16906,7 +17431,7 @@
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -16920,7 +17445,7 @@
       <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="7" t="s">
         <v>158</v>
       </c>
@@ -16932,7 +17457,7 @@
       <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="7" t="s">
         <v>159</v>
       </c>
@@ -16949,14 +17474,14 @@
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
     </row>
@@ -16978,7 +17503,7 @@
       <c r="A27" s="7">
         <v>2</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -16992,7 +17517,7 @@
       <c r="A28" s="7">
         <v>3</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="7" t="s">
         <v>50</v>
       </c>
@@ -17004,7 +17529,7 @@
       <c r="A29" s="7">
         <v>4</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="7" t="s">
         <v>51</v>
       </c>
@@ -17016,7 +17541,7 @@
       <c r="A30" s="7">
         <v>5</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="7" t="s">
         <v>45</v>
       </c>
@@ -17028,7 +17553,7 @@
       <c r="A31" s="7">
         <v>6</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -17042,7 +17567,7 @@
       <c r="A32" s="7">
         <v>7</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="7" t="s">
         <v>58</v>
       </c>
@@ -17054,7 +17579,7 @@
       <c r="A33" s="7">
         <v>8</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="7" t="s">
         <v>59</v>
       </c>
@@ -17066,7 +17591,7 @@
       <c r="A34" s="7">
         <v>9</v>
       </c>
-      <c r="B34" s="44"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
@@ -17078,7 +17603,7 @@
       <c r="A35" s="7">
         <v>14</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="37" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -17092,7 +17617,7 @@
       <c r="A36" s="7">
         <v>15</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="7" t="s">
         <v>63</v>
       </c>
@@ -17104,7 +17629,7 @@
       <c r="A37" s="7">
         <v>16</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="7" t="s">
         <v>64</v>
       </c>
@@ -17116,7 +17641,7 @@
       <c r="A38" s="7">
         <v>17</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -17130,7 +17655,7 @@
       <c r="A39" s="7">
         <v>18</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
@@ -17142,7 +17667,7 @@
       <c r="A40" s="7">
         <v>19</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="7" t="s">
         <v>68</v>
       </c>
@@ -17154,7 +17679,7 @@
       <c r="A41" s="7">
         <v>20</v>
       </c>
-      <c r="B41" s="44"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="7" t="s">
         <v>79</v>
       </c>
@@ -17182,6 +17707,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86D0B7-85A2-442A-AA38-720A6BFDA188}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17242,6 +17768,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B089B0A-E8A0-4ED9-814E-BAF75A8E5AF8}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17330,7 +17857,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -17627,813 +18154,813 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8958814-57BB-4A9B-B631-66A5BC3FEEAC}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CH64"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CT16" sqref="CS12:CT16"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.625" style="18" customWidth="1"/>
-    <col min="2" max="8" width="3.625" style="46"/>
+    <col min="2" max="8" width="3.625" style="29"/>
     <col min="9" max="14" width="3.625" style="18"/>
-    <col min="15" max="21" width="3.625" style="46"/>
+    <col min="15" max="21" width="3.625" style="29"/>
     <col min="22" max="27" width="3.625" style="18"/>
-    <col min="28" max="34" width="3.625" style="46"/>
+    <col min="28" max="34" width="3.625" style="29"/>
     <col min="35" max="40" width="3.625" style="18"/>
-    <col min="41" max="47" width="3.625" style="46"/>
+    <col min="41" max="47" width="3.625" style="29"/>
     <col min="48" max="53" width="3.625" style="18"/>
-    <col min="54" max="60" width="3.625" style="46"/>
+    <col min="54" max="60" width="3.625" style="29"/>
     <col min="61" max="66" width="3.625" style="18"/>
-    <col min="67" max="73" width="3.625" style="46"/>
+    <col min="67" max="73" width="3.625" style="29"/>
     <col min="74" max="79" width="3.625" style="18"/>
-    <col min="80" max="86" width="3.625" style="46"/>
+    <col min="80" max="86" width="3.625" style="29"/>
     <col min="87" max="16384" width="3.625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
       <c r="V2" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
       <c r="AI2" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="AO2" s="66" t="s">
+      <c r="AO2" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="49"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="43"/>
     </row>
     <row r="3" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="52"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="52"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="52"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="46"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="46"/>
     </row>
     <row r="4" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
       <c r="N4" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="55"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="55"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="49"/>
       <c r="AN4" s="20"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="55"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="49"/>
     </row>
     <row r="5" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I6" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="43"/>
       <c r="V6" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="AB6" s="66" t="s">
+      <c r="AB6" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="49"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="43"/>
       <c r="AI6" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="AO6" s="66" t="s">
+      <c r="AO6" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="49"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="43"/>
     </row>
     <row r="7" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="52"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="52"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="52"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="46"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="46"/>
     </row>
     <row r="8" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N8" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="55"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="49"/>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="55"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="49"/>
       <c r="AN8" s="20"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="55"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="49"/>
     </row>
     <row r="9" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N9" s="20"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
       <c r="AN9" s="20"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
     </row>
     <row r="10" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N10" s="20"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="45" t="s">
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="AB10" s="47" t="s">
+      <c r="AB10" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="45" t="s">
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="AO10" s="56" t="s">
+      <c r="AO10" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="45" t="s">
+      <c r="AP10" s="52"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="BB10" s="47" t="s">
+      <c r="BB10" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BC10" s="48"/>
-      <c r="BD10" s="48"/>
-      <c r="BE10" s="48"/>
-      <c r="BF10" s="48"/>
-      <c r="BG10" s="48"/>
-      <c r="BH10" s="49"/>
+      <c r="BC10" s="42"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="42"/>
+      <c r="BG10" s="42"/>
+      <c r="BH10" s="43"/>
     </row>
     <row r="11" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N11" s="20"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="52"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="61"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="51"/>
-      <c r="BD11" s="51"/>
-      <c r="BE11" s="51"/>
-      <c r="BF11" s="51"/>
-      <c r="BG11" s="51"/>
-      <c r="BH11" s="52"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="46"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="56"/>
+      <c r="BB11" s="44"/>
+      <c r="BC11" s="45"/>
+      <c r="BD11" s="45"/>
+      <c r="BE11" s="45"/>
+      <c r="BF11" s="45"/>
+      <c r="BG11" s="45"/>
+      <c r="BH11" s="46"/>
     </row>
     <row r="12" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N12" s="20"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
       <c r="AA12" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="55"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="49"/>
       <c r="AN12" s="20"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="63"/>
-      <c r="AQ12" s="63"/>
-      <c r="AR12" s="63"/>
-      <c r="AS12" s="63"/>
-      <c r="AT12" s="63"/>
-      <c r="AU12" s="64"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="58"/>
+      <c r="AU12" s="59"/>
       <c r="BA12" s="20"/>
-      <c r="BB12" s="53"/>
-      <c r="BC12" s="54"/>
-      <c r="BD12" s="54"/>
-      <c r="BE12" s="54"/>
-      <c r="BF12" s="54"/>
-      <c r="BG12" s="54"/>
-      <c r="BH12" s="55"/>
+      <c r="BB12" s="47"/>
+      <c r="BC12" s="48"/>
+      <c r="BD12" s="48"/>
+      <c r="BE12" s="48"/>
+      <c r="BF12" s="48"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="49"/>
     </row>
     <row r="13" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I14" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="O14" s="47" t="s">
+      <c r="O14" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="49"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="43"/>
     </row>
     <row r="15" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="52"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="46"/>
     </row>
     <row r="16" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N16" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="55"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49"/>
     </row>
     <row r="17" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I18" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="O18" s="47" t="s">
+      <c r="O18" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="49"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="43"/>
       <c r="V18" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="AB18" s="47" t="s">
+      <c r="AB18" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="49"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="43"/>
       <c r="AI18" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AO18" s="47" t="s">
+      <c r="AO18" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="49"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="43"/>
       <c r="AV18" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="BB18" s="47" t="s">
+      <c r="BB18" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="BC18" s="48"/>
-      <c r="BD18" s="48"/>
-      <c r="BE18" s="48"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48"/>
-      <c r="BH18" s="49"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="43"/>
     </row>
     <row r="19" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="52"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="52"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="51"/>
-      <c r="AQ19" s="51"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AT19" s="51"/>
-      <c r="AU19" s="52"/>
-      <c r="BB19" s="50"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
-      <c r="BG19" s="51"/>
-      <c r="BH19" s="52"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="46"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="46"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="46"/>
+      <c r="BB19" s="44"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="45"/>
+      <c r="BE19" s="45"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="46"/>
     </row>
     <row r="20" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N20" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="55"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="49"/>
       <c r="AA20" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="55"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="49"/>
       <c r="AN20" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="54"/>
-      <c r="AS20" s="54"/>
-      <c r="AT20" s="54"/>
-      <c r="AU20" s="55"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="49"/>
       <c r="BA20" s="20"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="54"/>
-      <c r="BD20" s="54"/>
-      <c r="BE20" s="54"/>
-      <c r="BF20" s="54"/>
-      <c r="BG20" s="54"/>
-      <c r="BH20" s="55"/>
+      <c r="BB20" s="47"/>
+      <c r="BC20" s="48"/>
+      <c r="BD20" s="48"/>
+      <c r="BE20" s="48"/>
+      <c r="BF20" s="48"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="49"/>
     </row>
     <row r="21" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI22" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="AO22" s="56" t="s">
+      <c r="AO22" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="58"/>
+      <c r="AP22" s="52"/>
+      <c r="AQ22" s="52"/>
+      <c r="AR22" s="52"/>
+      <c r="AS22" s="52"/>
+      <c r="AT22" s="52"/>
+      <c r="AU22" s="53"/>
       <c r="AV22" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="BB22" s="47" t="s">
+      <c r="BB22" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="BC22" s="48"/>
-      <c r="BD22" s="48"/>
-      <c r="BE22" s="48"/>
-      <c r="BF22" s="48"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="49"/>
+      <c r="BC22" s="42"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="42"/>
+      <c r="BF22" s="42"/>
+      <c r="BG22" s="42"/>
+      <c r="BH22" s="43"/>
     </row>
     <row r="23" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="60"/>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="60"/>
-      <c r="AS23" s="60"/>
-      <c r="AT23" s="60"/>
-      <c r="AU23" s="61"/>
-      <c r="BB23" s="50"/>
-      <c r="BC23" s="51"/>
-      <c r="BD23" s="51"/>
-      <c r="BE23" s="51"/>
-      <c r="BF23" s="51"/>
-      <c r="BG23" s="51"/>
-      <c r="BH23" s="52"/>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="55"/>
+      <c r="AQ23" s="55"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="56"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="45"/>
+      <c r="BE23" s="45"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="45"/>
+      <c r="BH23" s="46"/>
     </row>
     <row r="24" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN24" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="63"/>
-      <c r="AQ24" s="63"/>
-      <c r="AR24" s="63"/>
-      <c r="AS24" s="63"/>
-      <c r="AT24" s="63"/>
-      <c r="AU24" s="64"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="58"/>
+      <c r="AQ24" s="58"/>
+      <c r="AR24" s="58"/>
+      <c r="AS24" s="58"/>
+      <c r="AT24" s="58"/>
+      <c r="AU24" s="59"/>
       <c r="BA24" s="20"/>
-      <c r="BB24" s="53"/>
-      <c r="BC24" s="54"/>
-      <c r="BD24" s="54"/>
-      <c r="BE24" s="54"/>
-      <c r="BF24" s="54"/>
-      <c r="BG24" s="54"/>
-      <c r="BH24" s="55"/>
+      <c r="BB24" s="47"/>
+      <c r="BC24" s="48"/>
+      <c r="BD24" s="48"/>
+      <c r="BE24" s="48"/>
+      <c r="BF24" s="48"/>
+      <c r="BG24" s="48"/>
+      <c r="BH24" s="49"/>
     </row>
     <row r="25" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I26" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O26" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="49"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="43"/>
       <c r="V26" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AB26" s="47" t="s">
+      <c r="AB26" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="49"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="43"/>
       <c r="AI26" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="AO26" s="47" t="s">
+      <c r="AO26" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="49"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
+      <c r="AT26" s="42"/>
+      <c r="AU26" s="43"/>
     </row>
     <row r="27" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="52"/>
-      <c r="AO27" s="50"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="51"/>
-      <c r="AR27" s="51"/>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="52"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="46"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="46"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="46"/>
     </row>
     <row r="28" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N28" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="55"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="49"/>
       <c r="AA28" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="55"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="49"/>
       <c r="AN28" s="20"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="54"/>
-      <c r="AQ28" s="54"/>
-      <c r="AR28" s="54"/>
-      <c r="AS28" s="54"/>
-      <c r="AT28" s="54"/>
-      <c r="AU28" s="55"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="49"/>
     </row>
     <row r="29" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="V30" s="45" t="s">
+      <c r="V30" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="AB30" s="47" t="s">
+      <c r="AB30" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="45" t="s">
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="AO30" s="56" t="s">
+      <c r="AO30" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="58"/>
-      <c r="AV30" s="45" t="s">
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="53"/>
+      <c r="AV30" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="BB30" s="47" t="s">
+      <c r="BB30" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="BC30" s="48"/>
-      <c r="BD30" s="48"/>
-      <c r="BE30" s="48"/>
-      <c r="BF30" s="48"/>
-      <c r="BG30" s="48"/>
-      <c r="BH30" s="49"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="42"/>
+      <c r="BE30" s="42"/>
+      <c r="BF30" s="42"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="43"/>
     </row>
     <row r="31" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AB31" s="50"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="52"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="60"/>
-      <c r="AQ31" s="60"/>
-      <c r="AR31" s="60"/>
-      <c r="AS31" s="60"/>
-      <c r="AT31" s="60"/>
-      <c r="AU31" s="61"/>
-      <c r="BB31" s="50"/>
-      <c r="BC31" s="51"/>
-      <c r="BD31" s="51"/>
-      <c r="BE31" s="51"/>
-      <c r="BF31" s="51"/>
-      <c r="BG31" s="51"/>
-      <c r="BH31" s="52"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="46"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="55"/>
+      <c r="AU31" s="56"/>
+      <c r="BB31" s="44"/>
+      <c r="BC31" s="45"/>
+      <c r="BD31" s="45"/>
+      <c r="BE31" s="45"/>
+      <c r="BF31" s="45"/>
+      <c r="BG31" s="45"/>
+      <c r="BH31" s="46"/>
     </row>
     <row r="32" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AA32" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="54"/>
-      <c r="AG32" s="54"/>
-      <c r="AH32" s="55"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="49"/>
       <c r="AN32" s="20"/>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="63"/>
-      <c r="AQ32" s="63"/>
-      <c r="AR32" s="63"/>
-      <c r="AS32" s="63"/>
-      <c r="AT32" s="63"/>
-      <c r="AU32" s="64"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="58"/>
+      <c r="AQ32" s="58"/>
+      <c r="AR32" s="58"/>
+      <c r="AS32" s="58"/>
+      <c r="AT32" s="58"/>
+      <c r="AU32" s="59"/>
       <c r="BA32" s="20"/>
-      <c r="BB32" s="53"/>
-      <c r="BC32" s="54"/>
-      <c r="BD32" s="54"/>
-      <c r="BE32" s="54"/>
-      <c r="BF32" s="54"/>
-      <c r="BG32" s="54"/>
-      <c r="BH32" s="55"/>
+      <c r="BB32" s="47"/>
+      <c r="BC32" s="48"/>
+      <c r="BD32" s="48"/>
+      <c r="BE32" s="48"/>
+      <c r="BF32" s="48"/>
+      <c r="BG32" s="48"/>
+      <c r="BH32" s="49"/>
     </row>
     <row r="33" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I34" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="O34" s="47" t="s">
+      <c r="O34" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="49"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="43"/>
     </row>
     <row r="35" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O35" s="50"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="52"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="46"/>
     </row>
     <row r="36" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N36" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="O36" s="53"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="55"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="49"/>
       <c r="BB36" s="18"/>
       <c r="BC36" s="18"/>
       <c r="BD36" s="18"/>
@@ -18483,39 +19010,39 @@
       <c r="I38" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="O38" s="47" t="s">
+      <c r="O38" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="49"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="43"/>
       <c r="V38" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="AB38" s="56" t="s">
+      <c r="AB38" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="57"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="58"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="53"/>
       <c r="AI38" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="AO38" s="66" t="s">
+      <c r="AO38" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="AP38" s="48"/>
-      <c r="AQ38" s="48"/>
-      <c r="AR38" s="48"/>
-      <c r="AS38" s="48"/>
-      <c r="AT38" s="48"/>
-      <c r="AU38" s="49"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42"/>
+      <c r="AU38" s="43"/>
       <c r="BB38" s="18"/>
       <c r="BC38" s="18"/>
       <c r="BD38" s="18"/>
@@ -18539,55 +19066,55 @@
       <c r="CH38" s="18"/>
     </row>
     <row r="39" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O39" s="50"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="52"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="61"/>
-      <c r="AO39" s="50"/>
-      <c r="AP39" s="51"/>
-      <c r="AQ39" s="51"/>
-      <c r="AR39" s="51"/>
-      <c r="AS39" s="51"/>
-      <c r="AT39" s="51"/>
-      <c r="AU39" s="52"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="46"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="55"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="55"/>
+      <c r="AH39" s="56"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="45"/>
+      <c r="AQ39" s="45"/>
+      <c r="AR39" s="45"/>
+      <c r="AS39" s="45"/>
+      <c r="AT39" s="45"/>
+      <c r="AU39" s="46"/>
     </row>
     <row r="40" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N40" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="O40" s="53"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="55"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="49"/>
       <c r="AA40" s="20"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="63"/>
-      <c r="AD40" s="63"/>
-      <c r="AE40" s="63"/>
-      <c r="AF40" s="63"/>
-      <c r="AG40" s="63"/>
-      <c r="AH40" s="64"/>
+      <c r="AB40" s="57"/>
+      <c r="AC40" s="58"/>
+      <c r="AD40" s="58"/>
+      <c r="AE40" s="58"/>
+      <c r="AF40" s="58"/>
+      <c r="AG40" s="58"/>
+      <c r="AH40" s="59"/>
       <c r="AN40" s="20"/>
-      <c r="AO40" s="53"/>
-      <c r="AP40" s="54"/>
-      <c r="AQ40" s="54"/>
-      <c r="AR40" s="54"/>
-      <c r="AS40" s="54"/>
-      <c r="AT40" s="54"/>
-      <c r="AU40" s="55"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="48"/>
+      <c r="AQ40" s="48"/>
+      <c r="AR40" s="48"/>
+      <c r="AS40" s="48"/>
+      <c r="AT40" s="48"/>
+      <c r="AU40" s="49"/>
     </row>
     <row r="41" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="BV41" s="21"/>
@@ -18596,508 +19123,500 @@
       <c r="I42" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="O42" s="47" t="s">
+      <c r="O42" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="49"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="43"/>
       <c r="V42" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="AB42" s="47" t="s">
+      <c r="AB42" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="AC42" s="48"/>
-      <c r="AD42" s="48"/>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="48"/>
-      <c r="AG42" s="48"/>
-      <c r="AH42" s="49"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="43"/>
       <c r="AI42" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="AO42" s="47" t="s">
+      <c r="AO42" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="AP42" s="48"/>
-      <c r="AQ42" s="48"/>
-      <c r="AR42" s="48"/>
-      <c r="AS42" s="48"/>
-      <c r="AT42" s="48"/>
-      <c r="AU42" s="49"/>
+      <c r="AP42" s="42"/>
+      <c r="AQ42" s="42"/>
+      <c r="AR42" s="42"/>
+      <c r="AS42" s="42"/>
+      <c r="AT42" s="42"/>
+      <c r="AU42" s="43"/>
       <c r="AV42" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="BB42" s="56" t="s">
+      <c r="BB42" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="BC42" s="57"/>
-      <c r="BD42" s="57"/>
-      <c r="BE42" s="57"/>
-      <c r="BF42" s="57"/>
-      <c r="BG42" s="57"/>
-      <c r="BH42" s="58"/>
+      <c r="BC42" s="52"/>
+      <c r="BD42" s="52"/>
+      <c r="BE42" s="52"/>
+      <c r="BF42" s="52"/>
+      <c r="BG42" s="52"/>
+      <c r="BH42" s="53"/>
       <c r="BI42" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="BO42" s="66" t="s">
+      <c r="BO42" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="BP42" s="48"/>
-      <c r="BQ42" s="48"/>
-      <c r="BR42" s="48"/>
-      <c r="BS42" s="48"/>
-      <c r="BT42" s="48"/>
-      <c r="BU42" s="49"/>
+      <c r="BP42" s="42"/>
+      <c r="BQ42" s="42"/>
+      <c r="BR42" s="42"/>
+      <c r="BS42" s="42"/>
+      <c r="BT42" s="42"/>
+      <c r="BU42" s="43"/>
     </row>
     <row r="43" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O43" s="50"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="52"/>
-      <c r="AB43" s="50"/>
-      <c r="AC43" s="51"/>
-      <c r="AD43" s="51"/>
-      <c r="AE43" s="51"/>
-      <c r="AF43" s="51"/>
-      <c r="AG43" s="51"/>
-      <c r="AH43" s="52"/>
-      <c r="AO43" s="50"/>
-      <c r="AP43" s="51"/>
-      <c r="AQ43" s="51"/>
-      <c r="AR43" s="51"/>
-      <c r="AS43" s="51"/>
-      <c r="AT43" s="51"/>
-      <c r="AU43" s="52"/>
-      <c r="BB43" s="59"/>
-      <c r="BC43" s="60"/>
-      <c r="BD43" s="60"/>
-      <c r="BE43" s="60"/>
-      <c r="BF43" s="60"/>
-      <c r="BG43" s="60"/>
-      <c r="BH43" s="61"/>
-      <c r="BO43" s="50"/>
-      <c r="BP43" s="51"/>
-      <c r="BQ43" s="51"/>
-      <c r="BR43" s="51"/>
-      <c r="BS43" s="51"/>
-      <c r="BT43" s="51"/>
-      <c r="BU43" s="52"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="46"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
+      <c r="AH43" s="46"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="45"/>
+      <c r="AQ43" s="45"/>
+      <c r="AR43" s="45"/>
+      <c r="AS43" s="45"/>
+      <c r="AT43" s="45"/>
+      <c r="AU43" s="46"/>
+      <c r="BB43" s="54"/>
+      <c r="BC43" s="55"/>
+      <c r="BD43" s="55"/>
+      <c r="BE43" s="55"/>
+      <c r="BF43" s="55"/>
+      <c r="BG43" s="55"/>
+      <c r="BH43" s="56"/>
+      <c r="BO43" s="44"/>
+      <c r="BP43" s="45"/>
+      <c r="BQ43" s="45"/>
+      <c r="BR43" s="45"/>
+      <c r="BS43" s="45"/>
+      <c r="BT43" s="45"/>
+      <c r="BU43" s="46"/>
     </row>
     <row r="44" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="O44" s="53"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="55"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="49"/>
       <c r="AA44" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="55"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="48"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="48"/>
+      <c r="AF44" s="48"/>
+      <c r="AG44" s="48"/>
+      <c r="AH44" s="49"/>
       <c r="AN44" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="AO44" s="53"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="54"/>
-      <c r="AS44" s="54"/>
-      <c r="AT44" s="54"/>
-      <c r="AU44" s="55"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="48"/>
+      <c r="AQ44" s="48"/>
+      <c r="AR44" s="48"/>
+      <c r="AS44" s="48"/>
+      <c r="AT44" s="48"/>
+      <c r="AU44" s="49"/>
       <c r="BA44" s="20"/>
-      <c r="BB44" s="62"/>
-      <c r="BC44" s="63"/>
-      <c r="BD44" s="63"/>
-      <c r="BE44" s="63"/>
-      <c r="BF44" s="63"/>
-      <c r="BG44" s="63"/>
-      <c r="BH44" s="64"/>
+      <c r="BB44" s="57"/>
+      <c r="BC44" s="58"/>
+      <c r="BD44" s="58"/>
+      <c r="BE44" s="58"/>
+      <c r="BF44" s="58"/>
+      <c r="BG44" s="58"/>
+      <c r="BH44" s="59"/>
       <c r="BN44" s="20"/>
-      <c r="BO44" s="53"/>
-      <c r="BP44" s="54"/>
-      <c r="BQ44" s="54"/>
-      <c r="BR44" s="54"/>
-      <c r="BS44" s="54"/>
-      <c r="BT44" s="54"/>
-      <c r="BU44" s="55"/>
+      <c r="BO44" s="47"/>
+      <c r="BP44" s="48"/>
+      <c r="BQ44" s="48"/>
+      <c r="BR44" s="48"/>
+      <c r="BS44" s="48"/>
+      <c r="BT44" s="48"/>
+      <c r="BU44" s="49"/>
     </row>
     <row r="45" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI46" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AO46" s="47" t="s">
+      <c r="AO46" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="AP46" s="48"/>
-      <c r="AQ46" s="48"/>
-      <c r="AR46" s="48"/>
-      <c r="AS46" s="48"/>
-      <c r="AT46" s="48"/>
-      <c r="AU46" s="49"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
+      <c r="AT46" s="42"/>
+      <c r="AU46" s="43"/>
       <c r="AV46" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="BB46" s="47" t="s">
+      <c r="BB46" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="BC46" s="48"/>
-      <c r="BD46" s="48"/>
-      <c r="BE46" s="48"/>
-      <c r="BF46" s="48"/>
-      <c r="BG46" s="48"/>
-      <c r="BH46" s="49"/>
+      <c r="BC46" s="42"/>
+      <c r="BD46" s="42"/>
+      <c r="BE46" s="42"/>
+      <c r="BF46" s="42"/>
+      <c r="BG46" s="42"/>
+      <c r="BH46" s="43"/>
     </row>
     <row r="47" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AO47" s="50"/>
-      <c r="AP47" s="51"/>
-      <c r="AQ47" s="51"/>
-      <c r="AR47" s="51"/>
-      <c r="AS47" s="51"/>
-      <c r="AT47" s="51"/>
-      <c r="AU47" s="52"/>
-      <c r="BB47" s="50"/>
-      <c r="BC47" s="51"/>
-      <c r="BD47" s="51"/>
-      <c r="BE47" s="51"/>
-      <c r="BF47" s="51"/>
-      <c r="BG47" s="51"/>
-      <c r="BH47" s="52"/>
+      <c r="AO47" s="44"/>
+      <c r="AP47" s="45"/>
+      <c r="AQ47" s="45"/>
+      <c r="AR47" s="45"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="45"/>
+      <c r="AU47" s="46"/>
+      <c r="BB47" s="44"/>
+      <c r="BC47" s="45"/>
+      <c r="BD47" s="45"/>
+      <c r="BE47" s="45"/>
+      <c r="BF47" s="45"/>
+      <c r="BG47" s="45"/>
+      <c r="BH47" s="46"/>
     </row>
     <row r="48" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN48" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="54"/>
-      <c r="AQ48" s="54"/>
-      <c r="AR48" s="54"/>
-      <c r="AS48" s="54"/>
-      <c r="AT48" s="54"/>
-      <c r="AU48" s="55"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="48"/>
+      <c r="AQ48" s="48"/>
+      <c r="AR48" s="48"/>
+      <c r="AS48" s="48"/>
+      <c r="AT48" s="48"/>
+      <c r="AU48" s="49"/>
       <c r="BA48" s="20"/>
-      <c r="BB48" s="53"/>
-      <c r="BC48" s="54"/>
-      <c r="BD48" s="54"/>
-      <c r="BE48" s="54"/>
-      <c r="BF48" s="54"/>
-      <c r="BG48" s="54"/>
-      <c r="BH48" s="55"/>
+      <c r="BB48" s="47"/>
+      <c r="BC48" s="48"/>
+      <c r="BD48" s="48"/>
+      <c r="BE48" s="48"/>
+      <c r="BF48" s="48"/>
+      <c r="BG48" s="48"/>
+      <c r="BH48" s="49"/>
     </row>
     <row r="49" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI50" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="AO50" s="47" t="s">
+      <c r="AO50" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="AP50" s="48"/>
-      <c r="AQ50" s="48"/>
-      <c r="AR50" s="48"/>
-      <c r="AS50" s="48"/>
-      <c r="AT50" s="48"/>
-      <c r="AU50" s="49"/>
+      <c r="AP50" s="42"/>
+      <c r="AQ50" s="42"/>
+      <c r="AR50" s="42"/>
+      <c r="AS50" s="42"/>
+      <c r="AT50" s="42"/>
+      <c r="AU50" s="43"/>
       <c r="AV50" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="BB50" s="47" t="s">
+      <c r="BB50" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="BC50" s="48"/>
-      <c r="BD50" s="48"/>
-      <c r="BE50" s="48"/>
-      <c r="BF50" s="48"/>
-      <c r="BG50" s="48"/>
-      <c r="BH50" s="49"/>
+      <c r="BC50" s="42"/>
+      <c r="BD50" s="42"/>
+      <c r="BE50" s="42"/>
+      <c r="BF50" s="42"/>
+      <c r="BG50" s="42"/>
+      <c r="BH50" s="43"/>
       <c r="BI50" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="BO50" s="47" t="s">
+      <c r="BO50" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="BP50" s="48"/>
-      <c r="BQ50" s="48"/>
-      <c r="BR50" s="48"/>
-      <c r="BS50" s="48"/>
-      <c r="BT50" s="48"/>
-      <c r="BU50" s="49"/>
+      <c r="BP50" s="42"/>
+      <c r="BQ50" s="42"/>
+      <c r="BR50" s="42"/>
+      <c r="BS50" s="42"/>
+      <c r="BT50" s="42"/>
+      <c r="BU50" s="43"/>
     </row>
     <row r="51" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AO51" s="50"/>
-      <c r="AP51" s="51"/>
-      <c r="AQ51" s="51"/>
-      <c r="AR51" s="51"/>
-      <c r="AS51" s="51"/>
-      <c r="AT51" s="51"/>
-      <c r="AU51" s="52"/>
-      <c r="BB51" s="50"/>
-      <c r="BC51" s="51"/>
-      <c r="BD51" s="51"/>
-      <c r="BE51" s="51"/>
-      <c r="BF51" s="51"/>
-      <c r="BG51" s="51"/>
-      <c r="BH51" s="52"/>
-      <c r="BO51" s="50"/>
-      <c r="BP51" s="51"/>
-      <c r="BQ51" s="51"/>
-      <c r="BR51" s="51"/>
-      <c r="BS51" s="51"/>
-      <c r="BT51" s="51"/>
-      <c r="BU51" s="52"/>
+      <c r="AO51" s="44"/>
+      <c r="AP51" s="45"/>
+      <c r="AQ51" s="45"/>
+      <c r="AR51" s="45"/>
+      <c r="AS51" s="45"/>
+      <c r="AT51" s="45"/>
+      <c r="AU51" s="46"/>
+      <c r="BB51" s="44"/>
+      <c r="BC51" s="45"/>
+      <c r="BD51" s="45"/>
+      <c r="BE51" s="45"/>
+      <c r="BF51" s="45"/>
+      <c r="BG51" s="45"/>
+      <c r="BH51" s="46"/>
+      <c r="BO51" s="44"/>
+      <c r="BP51" s="45"/>
+      <c r="BQ51" s="45"/>
+      <c r="BR51" s="45"/>
+      <c r="BS51" s="45"/>
+      <c r="BT51" s="45"/>
+      <c r="BU51" s="46"/>
     </row>
     <row r="52" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN52" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="AO52" s="53"/>
-      <c r="AP52" s="54"/>
-      <c r="AQ52" s="54"/>
-      <c r="AR52" s="54"/>
-      <c r="AS52" s="54"/>
-      <c r="AT52" s="54"/>
-      <c r="AU52" s="55"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="48"/>
+      <c r="AQ52" s="48"/>
+      <c r="AR52" s="48"/>
+      <c r="AS52" s="48"/>
+      <c r="AT52" s="48"/>
+      <c r="AU52" s="49"/>
       <c r="BA52" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="BB52" s="53"/>
-      <c r="BC52" s="54"/>
-      <c r="BD52" s="54"/>
-      <c r="BE52" s="54"/>
-      <c r="BF52" s="54"/>
-      <c r="BG52" s="54"/>
-      <c r="BH52" s="55"/>
+      <c r="BB52" s="47"/>
+      <c r="BC52" s="48"/>
+      <c r="BD52" s="48"/>
+      <c r="BE52" s="48"/>
+      <c r="BF52" s="48"/>
+      <c r="BG52" s="48"/>
+      <c r="BH52" s="49"/>
       <c r="BN52" s="20"/>
-      <c r="BO52" s="53"/>
-      <c r="BP52" s="54"/>
-      <c r="BQ52" s="54"/>
-      <c r="BR52" s="54"/>
-      <c r="BS52" s="54"/>
-      <c r="BT52" s="54"/>
-      <c r="BU52" s="55"/>
+      <c r="BO52" s="47"/>
+      <c r="BP52" s="48"/>
+      <c r="BQ52" s="48"/>
+      <c r="BR52" s="48"/>
+      <c r="BS52" s="48"/>
+      <c r="BT52" s="48"/>
+      <c r="BU52" s="49"/>
     </row>
     <row r="53" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="54" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AV54" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="BB54" s="56" t="s">
+      <c r="BB54" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="BC54" s="57"/>
-      <c r="BD54" s="57"/>
-      <c r="BE54" s="57"/>
-      <c r="BF54" s="57"/>
-      <c r="BG54" s="57"/>
-      <c r="BH54" s="58"/>
+      <c r="BC54" s="52"/>
+      <c r="BD54" s="52"/>
+      <c r="BE54" s="52"/>
+      <c r="BF54" s="52"/>
+      <c r="BG54" s="52"/>
+      <c r="BH54" s="53"/>
       <c r="BI54" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="BO54" s="47" t="s">
+      <c r="BO54" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="BP54" s="48"/>
-      <c r="BQ54" s="48"/>
-      <c r="BR54" s="48"/>
-      <c r="BS54" s="48"/>
-      <c r="BT54" s="48"/>
-      <c r="BU54" s="49"/>
+      <c r="BP54" s="42"/>
+      <c r="BQ54" s="42"/>
+      <c r="BR54" s="42"/>
+      <c r="BS54" s="42"/>
+      <c r="BT54" s="42"/>
+      <c r="BU54" s="43"/>
     </row>
     <row r="55" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BB55" s="59"/>
-      <c r="BC55" s="60"/>
-      <c r="BD55" s="60"/>
-      <c r="BE55" s="60"/>
-      <c r="BF55" s="60"/>
-      <c r="BG55" s="60"/>
-      <c r="BH55" s="61"/>
-      <c r="BO55" s="50"/>
-      <c r="BP55" s="51"/>
-      <c r="BQ55" s="51"/>
-      <c r="BR55" s="51"/>
-      <c r="BS55" s="51"/>
-      <c r="BT55" s="51"/>
-      <c r="BU55" s="52"/>
+      <c r="BB55" s="54"/>
+      <c r="BC55" s="55"/>
+      <c r="BD55" s="55"/>
+      <c r="BE55" s="55"/>
+      <c r="BF55" s="55"/>
+      <c r="BG55" s="55"/>
+      <c r="BH55" s="56"/>
+      <c r="BO55" s="44"/>
+      <c r="BP55" s="45"/>
+      <c r="BQ55" s="45"/>
+      <c r="BR55" s="45"/>
+      <c r="BS55" s="45"/>
+      <c r="BT55" s="45"/>
+      <c r="BU55" s="46"/>
     </row>
     <row r="56" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="BA56" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="BB56" s="62"/>
-      <c r="BC56" s="63"/>
-      <c r="BD56" s="63"/>
-      <c r="BE56" s="63"/>
-      <c r="BF56" s="63"/>
-      <c r="BG56" s="63"/>
-      <c r="BH56" s="64"/>
+      <c r="BB56" s="57"/>
+      <c r="BC56" s="58"/>
+      <c r="BD56" s="58"/>
+      <c r="BE56" s="58"/>
+      <c r="BF56" s="58"/>
+      <c r="BG56" s="58"/>
+      <c r="BH56" s="59"/>
       <c r="BN56" s="20"/>
-      <c r="BO56" s="53"/>
-      <c r="BP56" s="54"/>
-      <c r="BQ56" s="54"/>
-      <c r="BR56" s="54"/>
-      <c r="BS56" s="54"/>
-      <c r="BT56" s="54"/>
-      <c r="BU56" s="55"/>
+      <c r="BO56" s="47"/>
+      <c r="BP56" s="48"/>
+      <c r="BQ56" s="48"/>
+      <c r="BR56" s="48"/>
+      <c r="BS56" s="48"/>
+      <c r="BT56" s="48"/>
+      <c r="BU56" s="49"/>
     </row>
     <row r="57" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="58" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI58" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AO58" s="47" t="s">
+      <c r="AO58" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="AP58" s="48"/>
-      <c r="AQ58" s="48"/>
-      <c r="AR58" s="48"/>
-      <c r="AS58" s="48"/>
-      <c r="AT58" s="48"/>
-      <c r="AU58" s="49"/>
+      <c r="AP58" s="42"/>
+      <c r="AQ58" s="42"/>
+      <c r="AR58" s="42"/>
+      <c r="AS58" s="42"/>
+      <c r="AT58" s="42"/>
+      <c r="AU58" s="43"/>
       <c r="AV58" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="BB58" s="47" t="s">
+      <c r="BB58" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="BC58" s="48"/>
-      <c r="BD58" s="48"/>
-      <c r="BE58" s="48"/>
-      <c r="BF58" s="48"/>
-      <c r="BG58" s="48"/>
-      <c r="BH58" s="49"/>
+      <c r="BC58" s="42"/>
+      <c r="BD58" s="42"/>
+      <c r="BE58" s="42"/>
+      <c r="BF58" s="42"/>
+      <c r="BG58" s="42"/>
+      <c r="BH58" s="43"/>
     </row>
     <row r="59" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AO59" s="50"/>
-      <c r="AP59" s="51"/>
-      <c r="AQ59" s="51"/>
-      <c r="AR59" s="51"/>
-      <c r="AS59" s="51"/>
-      <c r="AT59" s="51"/>
-      <c r="AU59" s="52"/>
-      <c r="BB59" s="50"/>
-      <c r="BC59" s="51"/>
-      <c r="BD59" s="51"/>
-      <c r="BE59" s="51"/>
-      <c r="BF59" s="51"/>
-      <c r="BG59" s="51"/>
-      <c r="BH59" s="52"/>
+      <c r="AO59" s="44"/>
+      <c r="AP59" s="45"/>
+      <c r="AQ59" s="45"/>
+      <c r="AR59" s="45"/>
+      <c r="AS59" s="45"/>
+      <c r="AT59" s="45"/>
+      <c r="AU59" s="46"/>
+      <c r="BB59" s="44"/>
+      <c r="BC59" s="45"/>
+      <c r="BD59" s="45"/>
+      <c r="BE59" s="45"/>
+      <c r="BF59" s="45"/>
+      <c r="BG59" s="45"/>
+      <c r="BH59" s="46"/>
     </row>
     <row r="60" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN60" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AO60" s="53"/>
-      <c r="AP60" s="54"/>
-      <c r="AQ60" s="54"/>
-      <c r="AR60" s="54"/>
-      <c r="AS60" s="54"/>
-      <c r="AT60" s="54"/>
-      <c r="AU60" s="55"/>
+      <c r="AO60" s="47"/>
+      <c r="AP60" s="48"/>
+      <c r="AQ60" s="48"/>
+      <c r="AR60" s="48"/>
+      <c r="AS60" s="48"/>
+      <c r="AT60" s="48"/>
+      <c r="AU60" s="49"/>
       <c r="BA60" s="20"/>
-      <c r="BB60" s="53"/>
-      <c r="BC60" s="54"/>
-      <c r="BD60" s="54"/>
-      <c r="BE60" s="54"/>
-      <c r="BF60" s="54"/>
-      <c r="BG60" s="54"/>
-      <c r="BH60" s="55"/>
+      <c r="BB60" s="47"/>
+      <c r="BC60" s="48"/>
+      <c r="BD60" s="48"/>
+      <c r="BE60" s="48"/>
+      <c r="BF60" s="48"/>
+      <c r="BG60" s="48"/>
+      <c r="BH60" s="49"/>
     </row>
     <row r="61" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="62" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI62" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="AO62" s="56" t="s">
+      <c r="AO62" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="AP62" s="57"/>
-      <c r="AQ62" s="57"/>
-      <c r="AR62" s="57"/>
-      <c r="AS62" s="57"/>
-      <c r="AT62" s="57"/>
-      <c r="AU62" s="58"/>
+      <c r="AP62" s="52"/>
+      <c r="AQ62" s="52"/>
+      <c r="AR62" s="52"/>
+      <c r="AS62" s="52"/>
+      <c r="AT62" s="52"/>
+      <c r="AU62" s="53"/>
       <c r="AV62" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="BB62" s="47" t="s">
+      <c r="BB62" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="BC62" s="48"/>
-      <c r="BD62" s="48"/>
-      <c r="BE62" s="48"/>
-      <c r="BF62" s="48"/>
-      <c r="BG62" s="48"/>
-      <c r="BH62" s="49"/>
+      <c r="BC62" s="42"/>
+      <c r="BD62" s="42"/>
+      <c r="BE62" s="42"/>
+      <c r="BF62" s="42"/>
+      <c r="BG62" s="42"/>
+      <c r="BH62" s="43"/>
     </row>
     <row r="63" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AO63" s="59"/>
-      <c r="AP63" s="60"/>
-      <c r="AQ63" s="60"/>
-      <c r="AR63" s="60"/>
-      <c r="AS63" s="60"/>
-      <c r="AT63" s="60"/>
-      <c r="AU63" s="61"/>
-      <c r="BB63" s="50"/>
-      <c r="BC63" s="51"/>
-      <c r="BD63" s="51"/>
-      <c r="BE63" s="51"/>
-      <c r="BF63" s="51"/>
-      <c r="BG63" s="51"/>
-      <c r="BH63" s="52"/>
+      <c r="AO63" s="54"/>
+      <c r="AP63" s="55"/>
+      <c r="AQ63" s="55"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="56"/>
+      <c r="BB63" s="44"/>
+      <c r="BC63" s="45"/>
+      <c r="BD63" s="45"/>
+      <c r="BE63" s="45"/>
+      <c r="BF63" s="45"/>
+      <c r="BG63" s="45"/>
+      <c r="BH63" s="46"/>
     </row>
     <row r="64" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN64" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AO64" s="62"/>
-      <c r="AP64" s="63"/>
-      <c r="AQ64" s="63"/>
-      <c r="AR64" s="63"/>
-      <c r="AS64" s="63"/>
-      <c r="AT64" s="63"/>
-      <c r="AU64" s="64"/>
+      <c r="AO64" s="57"/>
+      <c r="AP64" s="58"/>
+      <c r="AQ64" s="58"/>
+      <c r="AR64" s="58"/>
+      <c r="AS64" s="58"/>
+      <c r="AT64" s="58"/>
+      <c r="AU64" s="59"/>
       <c r="BA64" s="20"/>
-      <c r="BB64" s="53"/>
-      <c r="BC64" s="54"/>
-      <c r="BD64" s="54"/>
-      <c r="BE64" s="54"/>
-      <c r="BF64" s="54"/>
-      <c r="BG64" s="54"/>
-      <c r="BH64" s="55"/>
+      <c r="BB64" s="47"/>
+      <c r="BC64" s="48"/>
+      <c r="BD64" s="48"/>
+      <c r="BE64" s="48"/>
+      <c r="BF64" s="48"/>
+      <c r="BG64" s="48"/>
+      <c r="BH64" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="BO42:BU44"/>
-    <mergeCell ref="AB10:AH12"/>
-    <mergeCell ref="AO10:AU12"/>
-    <mergeCell ref="BB10:BH12"/>
-    <mergeCell ref="BB30:BH32"/>
-    <mergeCell ref="BB42:BH44"/>
-    <mergeCell ref="AO58:AU60"/>
-    <mergeCell ref="BB58:BH60"/>
-    <mergeCell ref="AO62:AU64"/>
-    <mergeCell ref="BB62:BH64"/>
-    <mergeCell ref="BB46:BH48"/>
-    <mergeCell ref="BB50:BH52"/>
-    <mergeCell ref="AO46:AU48"/>
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="O2:U4"/>
+    <mergeCell ref="O6:U8"/>
+    <mergeCell ref="O14:U16"/>
+    <mergeCell ref="O18:U20"/>
     <mergeCell ref="BO50:BU52"/>
     <mergeCell ref="BB54:BH56"/>
     <mergeCell ref="BO54:BU56"/>
@@ -19114,11 +19633,19 @@
     <mergeCell ref="O42:U44"/>
     <mergeCell ref="AB42:AH44"/>
     <mergeCell ref="AO42:AU44"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="O2:U4"/>
-    <mergeCell ref="O6:U8"/>
-    <mergeCell ref="O14:U16"/>
-    <mergeCell ref="O18:U20"/>
+    <mergeCell ref="AO58:AU60"/>
+    <mergeCell ref="BB58:BH60"/>
+    <mergeCell ref="AO62:AU64"/>
+    <mergeCell ref="BB62:BH64"/>
+    <mergeCell ref="BB46:BH48"/>
+    <mergeCell ref="BB50:BH52"/>
+    <mergeCell ref="AO46:AU48"/>
+    <mergeCell ref="BO42:BU44"/>
+    <mergeCell ref="AB10:AH12"/>
+    <mergeCell ref="AO10:AU12"/>
+    <mergeCell ref="BB10:BH12"/>
+    <mergeCell ref="BB30:BH32"/>
+    <mergeCell ref="BB42:BH44"/>
     <mergeCell ref="AB38:AH40"/>
     <mergeCell ref="AO38:AU40"/>
     <mergeCell ref="AB18:AH20"/>
@@ -19137,14 +19664,2280 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E058386-34BD-4910-BF69-6C8ACC46E50D}">
+  <dimension ref="A1:A455"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A256" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A257" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A260" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A261" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A262" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A263" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A265" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A266" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A267" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A268" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A269" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A270" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A271" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A272" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A273" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A274" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A275" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A276" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A277" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A278" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A279" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A280" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A281" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A282" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A283" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A284" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A285" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A286" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A287" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A288" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A289" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A290" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A291" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A292" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A293" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A295" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A296" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A297" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A298" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A300" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A301" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A302" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A303" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A304" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A305" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A306" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A307" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A317" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A333" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A334" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A335" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A336" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A337" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A338" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A339" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A340" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A341" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A342" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A343" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A344" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A345" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A346" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A347" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A348" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A349" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A350" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A351" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A352" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A353" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A354" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A355" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A356" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A357" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A358" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A359" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A360" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A361" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A362" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A363" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A364" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A365" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A366" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A367" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A368" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A369" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A370" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A371" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A372" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A373" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A374" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A375" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A376" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A377" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A378" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A379" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A380" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A381" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A382" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A383" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A384" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A385" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A386" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A387" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A388" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A389" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A390" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A391" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A392" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A393" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A394" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A395" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A396" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A397" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A398" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A399" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A400" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A401" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A402" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A403" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A404" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A405" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A406" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A407" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A408" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A409" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A410" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A411" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A412" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A413" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A414" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A415" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A416" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A417" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A418" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A419" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A420" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A421" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A422" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A423" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A424" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A425" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A426" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A427" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A428" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A429" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A430" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A431" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A432" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A433" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A434" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A435" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A436" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A437" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A438" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A439" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A440" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A441" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A442" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A443" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A444" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A445" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A446" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A447" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A448" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A449" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A450" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A451" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A452" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A454" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A455" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFAE609-A4DE-4FD6-A9FE-BA1A11CBB44D}">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BH36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
+      <selection activeCell="AN45" sqref="AN45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -19154,402 +21947,402 @@
   <sheetData>
     <row r="1" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="34"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="62"/>
       <c r="V2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="62"/>
     </row>
     <row r="3" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="37"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="37"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="65"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="65"/>
     </row>
     <row r="4" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="17"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
       <c r="N4" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="40"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68"/>
       <c r="AA4" s="17"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="40"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="68"/>
     </row>
     <row r="5" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I6" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="34"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="62"/>
       <c r="V6" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="AB6" s="32" t="s">
+      <c r="AB6" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="34"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="62"/>
       <c r="AI6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AO6" s="32" t="s">
+      <c r="AO6" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="33"/>
-      <c r="AU6" s="34"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="62"/>
       <c r="AV6" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="BB6" s="32" t="s">
+      <c r="BB6" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="BC6" s="33"/>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="33"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="34"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="61"/>
+      <c r="BG6" s="61"/>
+      <c r="BH6" s="62"/>
     </row>
     <row r="7" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="37"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="36"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="37"/>
-      <c r="BB7" s="35"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="37"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="65"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="65"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="65"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="64"/>
+      <c r="BE7" s="64"/>
+      <c r="BF7" s="64"/>
+      <c r="BG7" s="64"/>
+      <c r="BH7" s="65"/>
     </row>
     <row r="8" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N8" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="40"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="68"/>
       <c r="AA8" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="40"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="68"/>
       <c r="AN8" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="40"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="68"/>
       <c r="BA8" s="17"/>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="39"/>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="39"/>
-      <c r="BF8" s="39"/>
-      <c r="BG8" s="39"/>
-      <c r="BH8" s="40"/>
+      <c r="BB8" s="66"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="68"/>
     </row>
     <row r="9" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI10" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AO10" s="32" t="s">
+      <c r="AO10" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="34"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="62"/>
       <c r="AV10" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BB10" s="32" t="s">
+      <c r="BB10" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="BC10" s="33"/>
-      <c r="BD10" s="33"/>
-      <c r="BE10" s="33"/>
-      <c r="BF10" s="33"/>
-      <c r="BG10" s="33"/>
-      <c r="BH10" s="34"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="62"/>
     </row>
     <row r="11" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="37"/>
-      <c r="BB11" s="35"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="36"/>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="36"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="37"/>
+      <c r="AO11" s="63"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="65"/>
+      <c r="BB11" s="63"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="64"/>
+      <c r="BH11" s="65"/>
     </row>
     <row r="12" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN12" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-      <c r="AU12" s="40"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="67"/>
+      <c r="AQ12" s="67"/>
+      <c r="AR12" s="67"/>
+      <c r="AS12" s="67"/>
+      <c r="AT12" s="67"/>
+      <c r="AU12" s="68"/>
       <c r="BA12" s="17"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="39"/>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="40"/>
+      <c r="BB12" s="66"/>
+      <c r="BC12" s="67"/>
+      <c r="BD12" s="67"/>
+      <c r="BE12" s="67"/>
+      <c r="BF12" s="67"/>
+      <c r="BG12" s="67"/>
+      <c r="BH12" s="68"/>
     </row>
     <row r="13" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I14" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="34"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AB14" s="32" t="s">
+      <c r="AB14" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="34"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="62"/>
     </row>
     <row r="15" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O15" s="35"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="37"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="37"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="65"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="65"/>
     </row>
     <row r="16" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N16" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="O16" s="38"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="40"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="68"/>
       <c r="AA16" s="17"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="40"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="68"/>
     </row>
     <row r="17" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I18" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="62"/>
       <c r="V18" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AB18" s="32" t="s">
+      <c r="AB18" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="34"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="62"/>
       <c r="AI18" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AO18" s="32" t="s">
+      <c r="AO18" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="34"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="62"/>
       <c r="BA18" s="16" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="19" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O19" s="35"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="37"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="37"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="37"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="65"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="65"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="65"/>
       <c r="BA19" s="16" t="s">
         <v>257</v>
       </c>
@@ -19558,31 +22351,31 @@
       <c r="N20" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="O20" s="38"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="40"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="68"/>
       <c r="AA20" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="40"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="68"/>
       <c r="AN20" s="17"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="40"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="67"/>
+      <c r="AQ20" s="67"/>
+      <c r="AR20" s="67"/>
+      <c r="AS20" s="67"/>
+      <c r="AT20" s="67"/>
+      <c r="AU20" s="68"/>
       <c r="BA20" s="16" t="s">
         <v>250</v>
       </c>
@@ -19596,235 +22389,247 @@
       <c r="V22" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AB22" s="41" t="s">
+      <c r="AB22" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="34"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="62"/>
       <c r="AI22" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AO22" s="32" t="s">
+      <c r="AO22" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="33"/>
-      <c r="AU22" s="34"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="61"/>
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="62"/>
       <c r="BA22" s="16" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="23" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="37"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="37"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="65"/>
+      <c r="AO23" s="63"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="65"/>
     </row>
     <row r="24" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AA24" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="40"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="68"/>
       <c r="AN24" s="17"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="39"/>
-      <c r="AU24" s="40"/>
+      <c r="AO24" s="66"/>
+      <c r="AP24" s="67"/>
+      <c r="AQ24" s="67"/>
+      <c r="AR24" s="67"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="67"/>
+      <c r="AU24" s="68"/>
     </row>
     <row r="25" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I26" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="O26" s="32" t="s">
+      <c r="O26" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="34"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="62"/>
       <c r="V26" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="AB26" s="32" t="s">
+      <c r="AB26" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="34"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="62"/>
     </row>
     <row r="27" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O27" s="35"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="37"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="37"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="65"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="65"/>
     </row>
     <row r="28" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N28" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="40"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="68"/>
       <c r="AA28" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="40"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="68"/>
     </row>
     <row r="29" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I30" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="O30" s="32" t="s">
+      <c r="O30" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="34"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="62"/>
     </row>
     <row r="31" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O31" s="35"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="37"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="65"/>
     </row>
     <row r="32" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N32" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="40"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="68"/>
     </row>
     <row r="33" spans="9:34" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I34" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="O34" s="32" t="s">
+      <c r="O34" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="34"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="62"/>
       <c r="V34" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AB34" s="32" t="s">
+      <c r="AB34" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="34"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="61"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="62"/>
     </row>
     <row r="35" spans="9:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O35" s="35"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="37"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="37"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="65"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="65"/>
     </row>
     <row r="36" spans="9:34" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N36" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="O36" s="38"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="40"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="68"/>
       <c r="AA36" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="40"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="67"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O34:U36"/>
+    <mergeCell ref="AB34:AH36"/>
+    <mergeCell ref="AB22:AH24"/>
+    <mergeCell ref="AO22:AU24"/>
+    <mergeCell ref="O26:U28"/>
+    <mergeCell ref="AB26:AH28"/>
+    <mergeCell ref="O30:U32"/>
+    <mergeCell ref="BB6:BH8"/>
+    <mergeCell ref="AO10:AU12"/>
+    <mergeCell ref="BB10:BH12"/>
+    <mergeCell ref="O14:U16"/>
+    <mergeCell ref="AB14:AH16"/>
     <mergeCell ref="O18:U20"/>
     <mergeCell ref="AB18:AH20"/>
     <mergeCell ref="AO18:AU20"/>
@@ -19834,18 +22639,6 @@
     <mergeCell ref="O6:U8"/>
     <mergeCell ref="AB6:AH8"/>
     <mergeCell ref="AO6:AU8"/>
-    <mergeCell ref="BB6:BH8"/>
-    <mergeCell ref="AO10:AU12"/>
-    <mergeCell ref="BB10:BH12"/>
-    <mergeCell ref="O14:U16"/>
-    <mergeCell ref="AB14:AH16"/>
-    <mergeCell ref="O34:U36"/>
-    <mergeCell ref="AB34:AH36"/>
-    <mergeCell ref="AB22:AH24"/>
-    <mergeCell ref="AO22:AU24"/>
-    <mergeCell ref="O26:U28"/>
-    <mergeCell ref="AB26:AH28"/>
-    <mergeCell ref="O30:U32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19854,8 +22647,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562EA9A5-5BAD-4E52-B05D-F7DB8889D20B}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -19872,12 +22666,12 @@
     <col min="14" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:12" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="F13" s="16" t="b">
         <v>1</v>
       </c>
@@ -19885,7 +22679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:10" s="16" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D17" s="16" t="b">
         <v>0</v>
       </c>
@@ -19898,393 +22692,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B4563-B9B2-4E63-9055-2BF4A19DC52A}">
-  <sheetPr codeName="Sheet3">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:AT12"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BQ5" sqref="BQ5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="3" width="3.375" style="24"/>
-    <col min="4" max="4" width="3.375" style="22"/>
-    <col min="5" max="5" width="3.375" style="23"/>
-    <col min="6" max="6" width="3.375" style="24"/>
-    <col min="7" max="7" width="3.375" style="74"/>
-    <col min="8" max="8" width="3.375" style="22"/>
-    <col min="9" max="9" width="3.375" style="77"/>
-    <col min="10" max="10" width="3.375" style="24"/>
-    <col min="11" max="11" width="3.375" style="22"/>
-    <col min="12" max="12" width="3.375" style="23"/>
-    <col min="13" max="14" width="3.375" style="24"/>
-    <col min="15" max="15" width="3.375" style="74"/>
-    <col min="16" max="16" width="3.375" style="24"/>
-    <col min="17" max="17" width="3.375" style="80"/>
-    <col min="18" max="22" width="3.375" style="24"/>
-    <col min="23" max="23" width="3.375" style="74"/>
-    <col min="24" max="24" width="3.375" style="24"/>
-    <col min="25" max="25" width="3.375" style="80"/>
-    <col min="26" max="30" width="3.375" style="24"/>
-    <col min="31" max="31" width="3.375" style="74"/>
-    <col min="32" max="32" width="3.375" style="24"/>
-    <col min="33" max="33" width="3.375" style="80"/>
-    <col min="34" max="38" width="3.375" style="24"/>
-    <col min="39" max="39" width="3.375" style="74"/>
-    <col min="40" max="40" width="3.375" style="24"/>
-    <col min="41" max="41" width="3.375" style="80"/>
-    <col min="42" max="16384" width="3.375" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="74" t="s">
-        <v>406</v>
-      </c>
-      <c r="I2" s="77">
-        <v>1</v>
-      </c>
-      <c r="J2" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="R2" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="74" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y2" s="80">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="74">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH2" s="68" t="s">
-        <v>405</v>
-      </c>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="74" t="s">
-        <v>406</v>
-      </c>
-      <c r="AO2" s="80">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-    </row>
-    <row r="3" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-    </row>
-    <row r="4" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-    </row>
-    <row r="5" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="76">
-        <v>1</v>
-      </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="73" t="s">
-        <v>406</v>
-      </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="76">
-        <v>1</v>
-      </c>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="73" t="s">
-        <v>406</v>
-      </c>
-      <c r="R5" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="73">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-    </row>
-    <row r="6" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-    </row>
-    <row r="7" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-    </row>
-    <row r="8" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="74" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y8" s="80">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-    </row>
-    <row r="9" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-    </row>
-    <row r="10" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-    </row>
-    <row r="11" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="76">
-        <v>1</v>
-      </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="73" t="s">
-        <v>406</v>
-      </c>
-      <c r="R11" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="73">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-    </row>
-    <row r="12" spans="2:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AP2:AT3"/>
-    <mergeCell ref="R11:V12"/>
-    <mergeCell ref="Z11:AD12"/>
-    <mergeCell ref="J2:N12"/>
-    <mergeCell ref="Z2:AD9"/>
-    <mergeCell ref="AH2:AL3"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="R2:V3"/>
-    <mergeCell ref="R5:V6"/>
-    <mergeCell ref="R8:V9"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tabe.xlsx
+++ b/tabe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F0465\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96735AAF-DDF3-45DE-8BD8-F4CE954D6B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC4250-29FB-4E64-9834-E2BD47BE8FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="6" xr2:uid="{9D00AE84-927D-49F7-A44A-E9E94149C6D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{9D00AE84-927D-49F7-A44A-E9E94149C6D0}"/>
   </bookViews>
   <sheets>
     <sheet name="実装機能" sheetId="16" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="Sheet3" sheetId="44" r:id="rId4"/>
     <sheet name="画面一覧" sheetId="18" r:id="rId5"/>
     <sheet name="画面遷移 (会員)" sheetId="37" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="45" r:id="rId7"/>
-    <sheet name="画面遷移 (管理者)" sheetId="39" r:id="rId8"/>
+    <sheet name="画面遷移 (管理者)" sheetId="39" r:id="rId7"/>
+    <sheet name="ER図" sheetId="24" r:id="rId8"/>
     <sheet name="フローチャート" sheetId="43" r:id="rId9"/>
-    <sheet name="ER図" sheetId="24" r:id="rId10"/>
-    <sheet name="データベース設計" sheetId="8" r:id="rId11"/>
-    <sheet name="ファイル一覧(会員)" sheetId="41" r:id="rId12"/>
+    <sheet name="データベース設計" sheetId="8" r:id="rId10"/>
+    <sheet name="ファイル一覧(会員)" sheetId="41" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'画面遷移 (会員)'!$A$1:$CH$64</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="405">
   <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
@@ -1521,19 +1520,6 @@
       <t>イチラン</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予約入力画面</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3328,25 +3314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード変更の成功を通知する為のモーダルを表示する</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実装機能（要件定義）</t>
     <rPh sb="0" eb="2">
       <t>ジッソウ</t>
@@ -3908,508 +3875,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>// ボタンのOnSelectプロパティ</t>
-  </si>
-  <si>
-    <t>Set(varAll, true);</t>
-  </si>
-  <si>
-    <t>Set(varButtom1, false);</t>
-  </si>
-  <si>
-    <t>Set(varButtom2, false);</t>
-  </si>
-  <si>
-    <t>Set(varButtom3, false);</t>
-  </si>
-  <si>
-    <t>ClearCollect(colList_Temp, [@'ヌ11　期限メールリスト']);</t>
-  </si>
-  <si>
-    <t>ClearCollect(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    colList_Temp,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    If(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        TextSearchBox1.Text = ""　&amp;&amp; TextSearchBox1_1.Text = "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        [@'ヌ11　期限メールリスト'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        TextSearchBox1.Text &lt;&gt; "" &amp;&amp; TextSearchBox1_1.Text = "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Search(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            colList_Temp, TextSearchBox1.Text,件名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        TextSearchBox1_1.Text &lt;&gt; "" &amp;&amp; TextSearchBox1.Text = "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            colList_Temp, TextSearchBox1_1.Text,'機種・分類'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        TextSearchBox1.Text &lt;&gt; "" &amp;&amp; TextSearchBox1_1.Text &lt;&gt; "",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Search(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                colList_Temp,TextSearchBox1.Text,件名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            TextSearchBox1_1.Text,'機種・分類'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    )</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>If(varButtom1, ClearCollect(colList_Temp, Filter(colList_Temp, '承認・完了'.Value = "未承認")));</t>
-  </si>
-  <si>
-    <t>If(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    varButtom2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ClearCollect(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        colList_Temp,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Filter(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            colList_Temp,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Switch(Teamst,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "待ちすべて",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                Switch(Getgroup.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ機種.Value &lt;&gt; "【照査済み】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ機種.Value &lt;&gt; "【照査済み】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ制御.Value &lt;&gt; "【照査済み】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ制御.Value &lt;&gt; "【照査済み】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディシステム.Value &lt;&gt; "【照査済み】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value &lt;&gt; "【関係なし】" &amp;&amp; コネクテッド.Value &lt;&gt; "【照査済み】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value &lt;&gt; "【関係なし】" &amp;&amp; CGW.Value &lt;&gt; "【照査済み】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value &lt;&gt; "【関係なし】" &amp;&amp; 開発プロセス.Value &lt;&gt; "【照査済み】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "グループ長",'承認・完了'.Value = "未承認" &amp;&amp; 発行フラグ_承認者 = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "担当待ちのみ",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "照査待ちのみ",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Switch(Getgroup.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【照査待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【照査待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【照査待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【照査待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【照査待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【照査待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value = "【照査待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【照査待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "照査&amp;担当",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【照査待ち】" &amp;&amp; ボディ機種.Value = "【担当待ち】"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【照査待ち】" &amp;&amp; セーフ機種.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【照査待ち】" &amp;&amp; ボディ制御.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【照査待ち】" &amp;&amp; セーフ制御.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【照査待ち】" &amp;&amp; ボディシステム.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【照査待ち】" &amp;&amp; コネクテッド.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value = "【照査待ち】" &amp;&amp; CGW.Value = "【照査済み】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【照査待ち】" &amp;&amp; 開発プロセス.Value = "【担当待ち】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "担当選定",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【担当選定】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【担当選定】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【担当選定】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【担当選定】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【担当選定】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【担当選定】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value = "【担当選定】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【担当選定】",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                )                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    varButtom3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ機種.Value &lt;&gt; "【照査済み】"&amp;&amp; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    GetEmail in Concat(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Switch(ボディ機種.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　ボディ機種回覧リスト',ID = '回覧ルート(ボディ機種)').担当者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　ボディ機種回覧リスト',ID = '回覧ルート(ボディ機種)').照査者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　ボディ機種回覧リスト',Title = "担当選定者").照査者),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Email,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        ";"),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ機種.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Switch(セーフ機種.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　セーフ機種回覧リスト',ID = '回覧ルート(セーフ機種)').担当者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　セーフ機種回覧リスト',ID = '回覧ルート(セーフ機種)').照査者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　セーフ機種回覧リスト',Title = "担当選定者").照査者),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ制御.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Switch(ボディ制御.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　ボディ制御回覧リスト',ID = '回覧ルート(ボディ制御)').担当者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　ボディ制御回覧リスト',ID = '回覧ルート(ボディ制御)').照査者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　ボディ制御回覧リスト',回覧リスト名 = "担当選定者").照査者),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ制御.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Switch(セーフ制御.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　セーフ制御回覧リスト',ID = '回覧ルート(セーフ制御)').担当者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　セーフ制御回覧リスト',ID = '回覧ルート(セーフ制御)').照査者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　セーフ制御回覧リスト',Title = "担当選定者").照査者),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディシステム.Value &lt;&gt; "【照査済み】"&amp;&amp;                          　                      GetEmail in Concat(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Switch(ボディシステム.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　ボディシステム回覧リスト',ID = '回覧ルート(ボディシステム)').担当者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　ボディシステム回覧リスト',ID = '回覧ルート(ボディシステム)').照査者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　ボディシステム回覧リスト',Title = "担当選定者").照査者),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value &lt;&gt; "【関係なし】" &amp;&amp; コネクテッド.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Switch(コネクテッド.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　コネクテッド回覧リスト',ID = '回覧ルート(コネクテッド)').担当者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　コネクテッド回覧リスト',ID = '回覧ルート(コネクテッド)').照査者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　コネクテッド回覧リスト',Title = "担当選定者").照査者),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value &lt;&gt; "【関係なし】" &amp;&amp; CGW.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Switch(CGW.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　CGW回覧リスト',ID = '回覧ルート(CGW)').担当者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　CGW回覧リスト',ID = '回覧ルート(CGW)').照査者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　CGW回覧リスト',Title = "担当選定者").照査者),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value &lt;&gt; "【関係なし】" &amp;&amp; 開発プロセス.Value &lt;&gt; "【照査済み】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Switch(開発プロセス.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当待ち】",LookUp('ヌ11　期限メール　開発プロセス回覧リスト',ID = '回覧ルート(開発プロセス)').担当者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【照査待ち】",LookUp('ヌ11　期限メール　開発プロセス回覧リスト',ID = '回覧ルート(開発プロセス)').照査者,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        "【担当選定】",LookUp('ヌ11　期限メール　開発プロセス回覧リスト',タイトル = "担当選定者").照査者),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "グループ長",'承認・完了'.Value = "未承認" &amp;&amp; 発行フラグ_承認者 = 1    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Switch(Getgroup.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【担当待ち】"&amp;&amp; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【担当待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【担当待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【担当待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【担当待ち】"&amp;&amp;                          　                      GetEmail in Concat(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【担当待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value = "【担当待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【担当待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【照査待ち】"&amp;&amp; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【照査待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【照査待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【照査待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【照査待ち】"&amp;&amp;                          　                      GetEmail in Concat(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【照査待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value = "【照査待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【照査待ち】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ機種.Value &lt;&gt; "【照査済み】"&amp;&amp; ボディ機種.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ機種.Value &lt;&gt; "【照査済み】"&amp;&amp; セーフ機種.Value &lt;&gt; "【担当選定】"&amp;&amp;　</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディ制御.Value &lt;&gt; "【照査済み】"&amp;&amp; ボディ制御.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value &lt;&gt; "【関係なし】" &amp;&amp; セーフ制御.Value &lt;&gt; "【照査済み】"&amp;&amp; セーフ制御.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value &lt;&gt; "【関係なし】" &amp;&amp; ボディシステム.Value &lt;&gt; "【照査済み】"&amp;&amp; ボディシステム.Value &lt;&gt; "【担当選定】"&amp;&amp;                          　                      GetEmail in Concat(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value &lt;&gt; "【関係なし】" &amp;&amp; コネクテッド.Value &lt;&gt; "【照査済み】"&amp;&amp; コネクテッド.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value &lt;&gt; "【関係なし】" &amp;&amp; CGW.Value &lt;&gt; "【照査済み】"&amp;&amp; CGW.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value &lt;&gt; "【関係なし】" &amp;&amp; 開発プロセス.Value &lt;&gt; "【照査済み】"&amp;&amp; 開発プロセス.Value &lt;&gt; "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              Switch(Getgroup.Value,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ機種",ボディ機種.Value = "【担当選定】"&amp;&amp; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ機種",セーフ機種.Value = "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディ制御",ボディ制御.Value = "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "セーフ制御",セーフ制御.Value = "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "ボディシステム",ボディシステム.Value = "【担当選定】"&amp;&amp;                          　                      GetEmail in Concat(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "コネクテッド",コネクテッド.Value = "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "CGW",CGW.Value = "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    "開発プロセス",開発プロセス.Value = "【担当選定】"&amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                )                             </t>
-  </si>
-  <si>
-    <t>ClearCollect(colList_Temp, FirstN(colList_Temp, If(TextInput1.Text = "", 100,Value(TextInput1.Text))));</t>
-  </si>
-  <si>
-    <t>ClearCollect(colList,colList_Temp);</t>
+    <t>予約画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -8463,6 +7946,67 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF8B4AB-BB94-4711-8D25-E6B19185070E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1158875" y="2540000"/>
+          <a:ext cx="10620375" cy="7153275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13676,10 +13220,137 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>220435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="図 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B900A32-D579-413E-8702-E0F0C91BE25F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3143251" y="68035"/>
+          <a:ext cx="8455478" cy="7255329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52AEDAA-0BC2-435A-B3E7-09B8E62CA211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17477814" cy="7492253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13964,7 +13635,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>予約内容の検証</a:t>
+            <a:t>入力内容の検証</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14943,30 +14614,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>96371</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589989</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>99172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="30" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52AEDAA-0BC2-435A-B3E7-09B8E62CA211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C40066-A629-49C9-A4AE-EF881F9AFB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14989,8 +14655,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="17477814" cy="7492253"/>
+          <a:off x="369793" y="5972735"/>
+          <a:ext cx="8176372" cy="5657290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15325,127 +14991,127 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C3" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D4" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D5" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C6" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D7" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D8" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D9" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D10" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C11" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D12" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D13" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D14" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C16" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D17" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C18" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D19" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C20" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D21" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C22" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D23" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C24" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D25" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -15456,67 +15122,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B4563-B9B2-4E63-9055-2BF4A19DC52A}">
-  <sheetPr codeName="Sheet3">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="C1:AO1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BY22" sqref="BX22:BY22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="3" width="3.375" style="31"/>
-    <col min="4" max="4" width="3.375" style="32"/>
-    <col min="5" max="5" width="3.375" style="33"/>
-    <col min="6" max="6" width="3.375" style="31"/>
-    <col min="7" max="7" width="3.375" style="34"/>
-    <col min="8" max="8" width="3.375" style="32"/>
-    <col min="9" max="9" width="3.375" style="35"/>
-    <col min="10" max="10" width="3.375" style="31"/>
-    <col min="11" max="11" width="3.375" style="32"/>
-    <col min="12" max="12" width="3.375" style="33"/>
-    <col min="13" max="14" width="3.375" style="31"/>
-    <col min="15" max="15" width="3.375" style="34"/>
-    <col min="16" max="16" width="3.375" style="31"/>
-    <col min="17" max="17" width="3.375" style="36"/>
-    <col min="18" max="22" width="3.375" style="31"/>
-    <col min="23" max="23" width="3.375" style="34"/>
-    <col min="24" max="24" width="3.375" style="31"/>
-    <col min="25" max="25" width="3.375" style="36"/>
-    <col min="26" max="30" width="3.375" style="31"/>
-    <col min="31" max="31" width="3.375" style="34"/>
-    <col min="32" max="32" width="3.375" style="31"/>
-    <col min="33" max="33" width="3.375" style="36"/>
-    <col min="34" max="38" width="3.375" style="31"/>
-    <col min="39" max="39" width="3.375" style="34"/>
-    <col min="40" max="40" width="3.375" style="31"/>
-    <col min="41" max="41" width="3.375" style="36"/>
-    <col min="42" max="16384" width="3.375" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="18"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DAFD53-5D04-4CC0-86B6-196174E06058}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:A108"/>
+    <sheetView topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15736,10 +15349,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -15937,10 +15550,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>138</v>
@@ -15951,10 +15564,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>138</v>
@@ -15965,7 +15578,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>110</v>
@@ -15979,10 +15592,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>16</v>
@@ -15993,10 +15606,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>16</v>
@@ -16110,7 +15723,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -16129,7 +15742,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>32</v>
@@ -16160,7 +15773,7 @@
         <v>104</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>16</v>
@@ -16712,7 +16325,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
@@ -16731,7 +16344,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>32</v>
@@ -16745,10 +16358,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>16</v>
@@ -16759,10 +16372,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>16</v>
@@ -16807,7 +16420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618CE8C-CA72-4F71-B5FB-2C531F7B8D5F}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:D24"/>
@@ -16833,64 +16446,64 @@
         <v>24</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>325</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -16898,13 +16511,13 @@
         <v>178</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -16912,13 +16525,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -16926,97 +16539,97 @@
         <v>183</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -17024,41 +16637,41 @@
         <v>179</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -17066,13 +16679,13 @@
         <v>180</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -17080,27 +16693,27 @@
         <v>181</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -17108,55 +16721,55 @@
         <v>182</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>310</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>319</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>320</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -17188,7 +16801,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -17247,10 +16860,10 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -17271,10 +16884,10 @@
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -17309,10 +16922,10 @@
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -17338,7 +16951,7 @@
         <v>149</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -17467,7 +17080,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
@@ -17722,42 +17335,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -17787,11 +17400,11 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A26"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17805,7 +17418,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.4">
@@ -17818,10 +17431,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -17829,7 +17442,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -17837,7 +17450,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -17845,47 +17458,47 @@
         <v>183</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -17893,144 +17506,144 @@
         <v>179</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>353</v>
+        <v>211</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>180</v>
+        <v>403</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>181</v>
+        <v>404</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -18043,7 +17656,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>283</v>
@@ -18051,42 +17664,42 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="12" t="s">
-        <v>279</v>
+        <v>190</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -18094,31 +17707,31 @@
         <v>192</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="12" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="12" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -18126,23 +17739,7 @@
         <v>293</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -18157,10 +17754,10 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:CH64"/>
+  <dimension ref="B1:CP70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="CP30" sqref="CP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -18185,7 +17782,7 @@
     <row r="1" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -18194,10 +17791,10 @@
       <c r="G2" s="42"/>
       <c r="H2" s="43"/>
       <c r="I2" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O2" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P2" s="42"/>
       <c r="Q2" s="42"/>
@@ -18206,10 +17803,10 @@
       <c r="T2" s="42"/>
       <c r="U2" s="43"/>
       <c r="V2" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB2" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AC2" s="42"/>
       <c r="AD2" s="42"/>
@@ -18218,10 +17815,10 @@
       <c r="AG2" s="42"/>
       <c r="AH2" s="43"/>
       <c r="AI2" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AO2" s="41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AP2" s="42"/>
       <c r="AQ2" s="42"/>
@@ -18269,7 +17866,7 @@
       <c r="G4" s="48"/>
       <c r="H4" s="49"/>
       <c r="N4" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O4" s="47"/>
       <c r="P4" s="48"/>
@@ -18298,7 +17895,7 @@
     <row r="5" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I6" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O6" s="50" t="s">
         <v>2</v>
@@ -18310,10 +17907,10 @@
       <c r="T6" s="42"/>
       <c r="U6" s="43"/>
       <c r="V6" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB6" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AC6" s="42"/>
       <c r="AD6" s="42"/>
@@ -18322,10 +17919,10 @@
       <c r="AG6" s="42"/>
       <c r="AH6" s="43"/>
       <c r="AI6" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AO6" s="41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AP6" s="42"/>
       <c r="AQ6" s="42"/>
@@ -18359,7 +17956,7 @@
     </row>
     <row r="8" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N8" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O8" s="47"/>
       <c r="P8" s="48"/>
@@ -18421,10 +18018,10 @@
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
       <c r="V10" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB10" s="50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC10" s="42"/>
       <c r="AD10" s="42"/>
@@ -18433,10 +18030,10 @@
       <c r="AG10" s="42"/>
       <c r="AH10" s="43"/>
       <c r="AI10" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="AO10" s="51" t="s">
         <v>352</v>
-      </c>
-      <c r="AO10" s="51" t="s">
-        <v>353</v>
       </c>
       <c r="AP10" s="52"/>
       <c r="AQ10" s="52"/>
@@ -18445,7 +18042,7 @@
       <c r="AT10" s="52"/>
       <c r="AU10" s="53"/>
       <c r="AV10" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BB10" s="50" t="s">
         <v>2</v>
@@ -18498,7 +18095,7 @@
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="AA12" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB12" s="47"/>
       <c r="AC12" s="48"/>
@@ -18527,7 +18124,7 @@
     <row r="13" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I14" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O14" s="50" t="s">
         <v>183</v>
@@ -18550,7 +18147,7 @@
     </row>
     <row r="16" spans="2:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N16" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O16" s="47"/>
       <c r="P16" s="48"/>
@@ -18560,13 +18157,13 @@
       <c r="T16" s="48"/>
       <c r="U16" s="49"/>
     </row>
-    <row r="17" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="9:94" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="9:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I18" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O18" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
@@ -18575,10 +18172,10 @@
       <c r="T18" s="42"/>
       <c r="U18" s="43"/>
       <c r="V18" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB18" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC18" s="42"/>
       <c r="AD18" s="42"/>
@@ -18587,10 +18184,10 @@
       <c r="AG18" s="42"/>
       <c r="AH18" s="43"/>
       <c r="AI18" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AO18" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AP18" s="42"/>
       <c r="AQ18" s="42"/>
@@ -18599,10 +18196,10 @@
       <c r="AT18" s="42"/>
       <c r="AU18" s="43"/>
       <c r="AV18" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BB18" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BC18" s="42"/>
       <c r="BD18" s="42"/>
@@ -18611,7 +18208,7 @@
       <c r="BG18" s="42"/>
       <c r="BH18" s="43"/>
     </row>
-    <row r="19" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="9:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O19" s="44"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="45"/>
@@ -18641,9 +18238,9 @@
       <c r="BG19" s="45"/>
       <c r="BH19" s="46"/>
     </row>
-    <row r="20" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="9:94" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N20" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O20" s="47"/>
       <c r="P20" s="48"/>
@@ -18653,7 +18250,7 @@
       <c r="T20" s="48"/>
       <c r="U20" s="49"/>
       <c r="AA20" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB20" s="47"/>
       <c r="AC20" s="48"/>
@@ -18663,7 +18260,7 @@
       <c r="AG20" s="48"/>
       <c r="AH20" s="49"/>
       <c r="AN20" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO20" s="47"/>
       <c r="AP20" s="48"/>
@@ -18681,13 +18278,13 @@
       <c r="BG20" s="48"/>
       <c r="BH20" s="49"/>
     </row>
-    <row r="21" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="9:94" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="9:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI22" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO22" s="51" t="s">
         <v>302</v>
-      </c>
-      <c r="AO22" s="51" t="s">
-        <v>303</v>
       </c>
       <c r="AP22" s="52"/>
       <c r="AQ22" s="52"/>
@@ -18696,10 +18293,10 @@
       <c r="AT22" s="52"/>
       <c r="AU22" s="53"/>
       <c r="AV22" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BB22" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BC22" s="42"/>
       <c r="BD22" s="42"/>
@@ -18708,7 +18305,7 @@
       <c r="BG22" s="42"/>
       <c r="BH22" s="43"/>
     </row>
-    <row r="23" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="9:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AO23" s="54"/>
       <c r="AP23" s="55"/>
       <c r="AQ23" s="55"/>
@@ -18724,9 +18321,9 @@
       <c r="BG23" s="45"/>
       <c r="BH23" s="46"/>
     </row>
-    <row r="24" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:94" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN24" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO24" s="57"/>
       <c r="AP24" s="58"/>
@@ -18744,13 +18341,13 @@
       <c r="BG24" s="48"/>
       <c r="BH24" s="49"/>
     </row>
-    <row r="25" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="9:94" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="9:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I26" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O26" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
@@ -18759,10 +18356,10 @@
       <c r="T26" s="42"/>
       <c r="U26" s="43"/>
       <c r="V26" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AB26" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AC26" s="42"/>
       <c r="AD26" s="42"/>
@@ -18771,10 +18368,10 @@
       <c r="AG26" s="42"/>
       <c r="AH26" s="43"/>
       <c r="AI26" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO26" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AP26" s="42"/>
       <c r="AQ26" s="42"/>
@@ -18783,7 +18380,7 @@
       <c r="AT26" s="42"/>
       <c r="AU26" s="43"/>
     </row>
-    <row r="27" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="9:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O27" s="44"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
@@ -18806,9 +18403,9 @@
       <c r="AT27" s="45"/>
       <c r="AU27" s="46"/>
     </row>
-    <row r="28" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="9:94" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N28" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O28" s="47"/>
       <c r="P28" s="48"/>
@@ -18818,7 +18415,7 @@
       <c r="T28" s="48"/>
       <c r="U28" s="49"/>
       <c r="AA28" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB28" s="47"/>
       <c r="AC28" s="48"/>
@@ -18836,13 +18433,13 @@
       <c r="AT28" s="48"/>
       <c r="AU28" s="49"/>
     </row>
-    <row r="29" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="9:94" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="9:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="V30" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB30" s="50" t="s">
         <v>348</v>
-      </c>
-      <c r="AB30" s="50" t="s">
-        <v>349</v>
       </c>
       <c r="AC30" s="42"/>
       <c r="AD30" s="42"/>
@@ -18851,10 +18448,10 @@
       <c r="AG30" s="42"/>
       <c r="AH30" s="43"/>
       <c r="AI30" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="AO30" s="51" t="s">
         <v>352</v>
-      </c>
-      <c r="AO30" s="51" t="s">
-        <v>353</v>
       </c>
       <c r="AP30" s="52"/>
       <c r="AQ30" s="52"/>
@@ -18863,7 +18460,7 @@
       <c r="AT30" s="52"/>
       <c r="AU30" s="53"/>
       <c r="AV30" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BB30" s="50" t="s">
         <v>2</v>
@@ -18874,8 +18471,9 @@
       <c r="BF30" s="42"/>
       <c r="BG30" s="42"/>
       <c r="BH30" s="43"/>
-    </row>
-    <row r="31" spans="9:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="CP30"/>
+    </row>
+    <row r="31" spans="9:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AB31" s="44"/>
       <c r="AC31" s="45"/>
       <c r="AD31" s="45"/>
@@ -18898,9 +18496,9 @@
       <c r="BG31" s="45"/>
       <c r="BH31" s="46"/>
     </row>
-    <row r="32" spans="9:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="9:94" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AA32" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB32" s="47"/>
       <c r="AC32" s="48"/>
@@ -18929,10 +18527,10 @@
     <row r="33" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I34" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O34" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
@@ -18952,7 +18550,7 @@
     </row>
     <row r="36" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N36" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O36" s="47"/>
       <c r="P36" s="48"/>
@@ -19008,10 +18606,10 @@
     </row>
     <row r="38" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I38" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O38" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
@@ -19020,10 +18618,10 @@
       <c r="T38" s="42"/>
       <c r="U38" s="43"/>
       <c r="V38" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB38" s="51" t="s">
         <v>305</v>
-      </c>
-      <c r="AB38" s="51" t="s">
-        <v>306</v>
       </c>
       <c r="AC38" s="52"/>
       <c r="AD38" s="52"/>
@@ -19032,10 +18630,10 @@
       <c r="AG38" s="52"/>
       <c r="AH38" s="53"/>
       <c r="AI38" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AO38" s="41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AP38" s="42"/>
       <c r="AQ38" s="42"/>
@@ -19090,7 +18688,7 @@
     </row>
     <row r="40" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N40" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O40" s="47"/>
       <c r="P40" s="48"/>
@@ -19121,7 +18719,7 @@
     </row>
     <row r="42" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I42" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O42" s="50" t="s">
         <v>180</v>
@@ -19133,10 +18731,10 @@
       <c r="T42" s="42"/>
       <c r="U42" s="43"/>
       <c r="V42" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB42" s="50" t="s">
         <v>215</v>
-      </c>
-      <c r="AB42" s="50" t="s">
-        <v>216</v>
       </c>
       <c r="AC42" s="42"/>
       <c r="AD42" s="42"/>
@@ -19145,10 +18743,10 @@
       <c r="AG42" s="42"/>
       <c r="AH42" s="43"/>
       <c r="AI42" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AO42" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AP42" s="42"/>
       <c r="AQ42" s="42"/>
@@ -19157,10 +18755,10 @@
       <c r="AT42" s="42"/>
       <c r="AU42" s="43"/>
       <c r="AV42" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BB42" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BC42" s="52"/>
       <c r="BD42" s="52"/>
@@ -19169,10 +18767,10 @@
       <c r="BG42" s="52"/>
       <c r="BH42" s="53"/>
       <c r="BI42" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BO42" s="41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="BP42" s="42"/>
       <c r="BQ42" s="42"/>
@@ -19220,7 +18818,7 @@
     </row>
     <row r="44" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N44" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O44" s="47"/>
       <c r="P44" s="48"/>
@@ -19230,7 +18828,7 @@
       <c r="T44" s="48"/>
       <c r="U44" s="49"/>
       <c r="AA44" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB44" s="47"/>
       <c r="AC44" s="48"/>
@@ -19240,7 +18838,7 @@
       <c r="AG44" s="48"/>
       <c r="AH44" s="49"/>
       <c r="AN44" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO44" s="47"/>
       <c r="AP44" s="48"/>
@@ -19269,7 +18867,7 @@
     <row r="45" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="9:86" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI46" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO46" s="50" t="s">
         <v>182</v>
@@ -19281,10 +18879,10 @@
       <c r="AT46" s="42"/>
       <c r="AU46" s="43"/>
       <c r="AV46" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BB46" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BC46" s="42"/>
       <c r="BD46" s="42"/>
@@ -19311,7 +18909,7 @@
     </row>
     <row r="48" spans="9:86" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN48" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO48" s="47"/>
       <c r="AP48" s="48"/>
@@ -19332,10 +18930,10 @@
     <row r="49" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI50" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AO50" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AP50" s="42"/>
       <c r="AQ50" s="42"/>
@@ -19344,10 +18942,10 @@
       <c r="AT50" s="42"/>
       <c r="AU50" s="43"/>
       <c r="AV50" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BB50" s="50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BC50" s="42"/>
       <c r="BD50" s="42"/>
@@ -19356,10 +18954,10 @@
       <c r="BG50" s="42"/>
       <c r="BH50" s="43"/>
       <c r="BI50" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BO50" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BP50" s="42"/>
       <c r="BQ50" s="42"/>
@@ -19393,7 +18991,7 @@
     </row>
     <row r="52" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN52" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO52" s="47"/>
       <c r="AP52" s="48"/>
@@ -19403,7 +19001,7 @@
       <c r="AT52" s="48"/>
       <c r="AU52" s="49"/>
       <c r="BA52" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BB52" s="47"/>
       <c r="BC52" s="48"/>
@@ -19424,10 +19022,10 @@
     <row r="53" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="54" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AV54" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BB54" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BC54" s="52"/>
       <c r="BD54" s="52"/>
@@ -19436,10 +19034,10 @@
       <c r="BG54" s="52"/>
       <c r="BH54" s="53"/>
       <c r="BI54" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BO54" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BP54" s="42"/>
       <c r="BQ54" s="42"/>
@@ -19466,7 +19064,7 @@
     </row>
     <row r="56" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="BA56" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BB56" s="57"/>
       <c r="BC56" s="58"/>
@@ -19487,10 +19085,10 @@
     <row r="57" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="58" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI58" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AO58" s="50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AP58" s="42"/>
       <c r="AQ58" s="42"/>
@@ -19499,10 +19097,10 @@
       <c r="AT58" s="42"/>
       <c r="AU58" s="43"/>
       <c r="AV58" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BB58" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BC58" s="42"/>
       <c r="BD58" s="42"/>
@@ -19529,7 +19127,7 @@
     </row>
     <row r="60" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN60" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO60" s="47"/>
       <c r="AP60" s="48"/>
@@ -19550,10 +19148,10 @@
     <row r="61" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="62" spans="35:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI62" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AO62" s="51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AP62" s="52"/>
       <c r="AQ62" s="52"/>
@@ -19562,10 +19160,10 @@
       <c r="AT62" s="52"/>
       <c r="AU62" s="53"/>
       <c r="AV62" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BB62" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BC62" s="42"/>
       <c r="BD62" s="42"/>
@@ -19592,7 +19190,7 @@
     </row>
     <row r="64" spans="35:73" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN64" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO64" s="57"/>
       <c r="AP64" s="58"/>
@@ -19609,6 +19207,9 @@
       <c r="BF64" s="48"/>
       <c r="BG64" s="48"/>
       <c r="BH64" s="49"/>
+    </row>
+    <row r="70" spans="24:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X70"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -19664,2280 +19265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E058386-34BD-4910-BF69-6C8ACC46E50D}">
-  <dimension ref="A1:A455"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A203" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A205" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A206" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A213" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A214" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A218" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A219" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A220" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A233" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A256" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A257" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A258" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A259" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A261" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A262" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A263" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A264" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A265" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A266" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A267" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A268" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A269" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A270" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A271" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A272" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A273" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A274" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A275" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A276" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A277" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A278" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A279" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A280" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A281" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A282" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A283" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A284" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A285" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A286" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A287" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A288" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A289" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A290" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A291" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A292" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A293" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A294" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A295" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A296" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A297" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A298" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A299" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A300" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A301" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A302" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A303" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A304" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A305" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A306" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A307" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A309" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A311" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A312" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A313" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A314" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A315" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A316" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A317" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A318" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A319" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A320" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A321" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A322" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A323" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A324" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A325" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A326" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A327" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A328" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A329" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A330" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A331" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A332" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A333" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A334" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A335" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A336" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A337" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A338" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A339" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A340" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A341" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A342" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A343" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A344" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A345" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A346" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A347" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A348" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A349" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A350" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A351" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A352" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A353" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A354" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A355" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A356" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A357" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A358" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A359" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A360" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A361" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A362" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A363" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A364" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A365" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A366" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A367" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A368" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A369" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A370" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A371" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A372" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A373" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A374" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A375" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A376" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A377" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A378" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A379" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A380" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A381" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A382" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A383" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A384" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A385" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A386" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A387" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A388" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A389" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A390" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A391" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A392" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A393" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A394" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A395" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A396" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A397" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A398" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A399" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A400" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A401" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A402" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A403" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A404" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A405" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A406" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A407" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A408" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A409" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A410" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A411" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A412" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A413" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A414" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A415" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A416" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A417" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A418" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A419" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A420" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A421" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A422" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A423" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A424" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A425" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A426" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A427" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A428" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A429" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A430" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A431" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A432" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A433" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A434" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A435" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A436" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A437" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A438" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A439" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A440" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A441" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A442" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A443" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A444" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A445" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A446" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A447" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A448" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A449" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A450" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A451" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A452" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A454" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A455" t="s">
-        <v>572</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFAE609-A4DE-4FD6-A9FE-BA1A11CBB44D}">
   <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BH36"/>
+  <dimension ref="A1:BH59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN45" sqref="AN45"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BI27" sqref="BI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -21948,7 +19283,7 @@
     <row r="1" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -21957,10 +19292,10 @@
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O2" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
@@ -21969,10 +19304,10 @@
       <c r="T2" s="61"/>
       <c r="U2" s="62"/>
       <c r="V2" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB2" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC2" s="61"/>
       <c r="AD2" s="61"/>
@@ -22014,7 +19349,7 @@
       <c r="G4" s="67"/>
       <c r="H4" s="68"/>
       <c r="N4" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O4" s="66"/>
       <c r="P4" s="67"/>
@@ -22035,10 +19370,10 @@
     <row r="5" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I6" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O6" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P6" s="61"/>
       <c r="Q6" s="61"/>
@@ -22047,10 +19382,10 @@
       <c r="T6" s="61"/>
       <c r="U6" s="62"/>
       <c r="V6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB6" s="60" t="s">
         <v>215</v>
-      </c>
-      <c r="AB6" s="60" t="s">
-        <v>216</v>
       </c>
       <c r="AC6" s="61"/>
       <c r="AD6" s="61"/>
@@ -22059,10 +19394,10 @@
       <c r="AG6" s="61"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AO6" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP6" s="61"/>
       <c r="AQ6" s="61"/>
@@ -22071,10 +19406,10 @@
       <c r="AT6" s="61"/>
       <c r="AU6" s="62"/>
       <c r="AV6" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BB6" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BC6" s="61"/>
       <c r="BD6" s="61"/>
@@ -22115,7 +19450,7 @@
     </row>
     <row r="8" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N8" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O8" s="66"/>
       <c r="P8" s="67"/>
@@ -22125,7 +19460,7 @@
       <c r="T8" s="67"/>
       <c r="U8" s="68"/>
       <c r="AA8" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB8" s="66"/>
       <c r="AC8" s="67"/>
@@ -22135,7 +19470,7 @@
       <c r="AG8" s="67"/>
       <c r="AH8" s="68"/>
       <c r="AN8" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO8" s="66"/>
       <c r="AP8" s="67"/>
@@ -22156,10 +19491,10 @@
     <row r="9" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO10" s="60" t="s">
         <v>237</v>
-      </c>
-      <c r="AO10" s="60" t="s">
-        <v>238</v>
       </c>
       <c r="AP10" s="61"/>
       <c r="AQ10" s="61"/>
@@ -22168,10 +19503,10 @@
       <c r="AT10" s="61"/>
       <c r="AU10" s="62"/>
       <c r="AV10" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BB10" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BC10" s="61"/>
       <c r="BD10" s="61"/>
@@ -22198,7 +19533,7 @@
     </row>
     <row r="12" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN12" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO12" s="66"/>
       <c r="AP12" s="67"/>
@@ -22219,10 +19554,10 @@
     <row r="13" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I14" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="O14" s="60" t="s">
         <v>239</v>
-      </c>
-      <c r="O14" s="60" t="s">
-        <v>240</v>
       </c>
       <c r="P14" s="61"/>
       <c r="Q14" s="61"/>
@@ -22231,10 +19566,10 @@
       <c r="T14" s="61"/>
       <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB14" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AC14" s="61"/>
       <c r="AD14" s="61"/>
@@ -22261,7 +19596,7 @@
     </row>
     <row r="16" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N16" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O16" s="66"/>
       <c r="P16" s="67"/>
@@ -22282,10 +19617,10 @@
     <row r="17" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I18" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O18" s="60" t="s">
         <v>241</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>242</v>
       </c>
       <c r="P18" s="61"/>
       <c r="Q18" s="61"/>
@@ -22294,10 +19629,10 @@
       <c r="T18" s="61"/>
       <c r="U18" s="62"/>
       <c r="V18" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AB18" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC18" s="61"/>
       <c r="AD18" s="61"/>
@@ -22306,10 +19641,10 @@
       <c r="AG18" s="61"/>
       <c r="AH18" s="62"/>
       <c r="AI18" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO18" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AP18" s="61"/>
       <c r="AQ18" s="61"/>
@@ -22318,7 +19653,7 @@
       <c r="AT18" s="61"/>
       <c r="AU18" s="62"/>
       <c r="BA18" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -22344,12 +19679,12 @@
       <c r="AT19" s="64"/>
       <c r="AU19" s="65"/>
       <c r="BA19" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N20" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O20" s="66"/>
       <c r="P20" s="67"/>
@@ -22359,7 +19694,7 @@
       <c r="T20" s="67"/>
       <c r="U20" s="68"/>
       <c r="AA20" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB20" s="66"/>
       <c r="AC20" s="67"/>
@@ -22377,20 +19712,20 @@
       <c r="AT20" s="67"/>
       <c r="AU20" s="68"/>
       <c r="BA20" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="BA21" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="V22" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB22" s="69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AC22" s="61"/>
       <c r="AD22" s="61"/>
@@ -22399,10 +19734,10 @@
       <c r="AG22" s="61"/>
       <c r="AH22" s="62"/>
       <c r="AI22" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AO22" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AP22" s="61"/>
       <c r="AQ22" s="61"/>
@@ -22411,7 +19746,7 @@
       <c r="AT22" s="61"/>
       <c r="AU22" s="62"/>
       <c r="BA22" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -22432,7 +19767,7 @@
     </row>
     <row r="24" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AA24" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB24" s="66"/>
       <c r="AC24" s="67"/>
@@ -22453,10 +19788,10 @@
     <row r="25" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I26" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O26" s="60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P26" s="61"/>
       <c r="Q26" s="61"/>
@@ -22465,10 +19800,10 @@
       <c r="T26" s="61"/>
       <c r="U26" s="62"/>
       <c r="V26" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB26" s="60" t="s">
         <v>246</v>
-      </c>
-      <c r="AB26" s="60" t="s">
-        <v>247</v>
       </c>
       <c r="AC26" s="61"/>
       <c r="AD26" s="61"/>
@@ -22495,7 +19830,7 @@
     </row>
     <row r="28" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N28" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O28" s="66"/>
       <c r="P28" s="67"/>
@@ -22505,7 +19840,7 @@
       <c r="T28" s="67"/>
       <c r="U28" s="68"/>
       <c r="AA28" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB28" s="66"/>
       <c r="AC28" s="67"/>
@@ -22518,10 +19853,10 @@
     <row r="29" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I30" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O30" s="60" t="s">
         <v>248</v>
-      </c>
-      <c r="O30" s="60" t="s">
-        <v>249</v>
       </c>
       <c r="P30" s="61"/>
       <c r="Q30" s="61"/>
@@ -22541,7 +19876,7 @@
     </row>
     <row r="32" spans="9:53" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N32" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O32" s="66"/>
       <c r="P32" s="67"/>
@@ -22554,10 +19889,10 @@
     <row r="33" spans="9:34" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="34" spans="9:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I34" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O34" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P34" s="61"/>
       <c r="Q34" s="61"/>
@@ -22566,10 +19901,10 @@
       <c r="T34" s="61"/>
       <c r="U34" s="62"/>
       <c r="V34" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AB34" s="60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC34" s="61"/>
       <c r="AD34" s="61"/>
@@ -22596,7 +19931,7 @@
     </row>
     <row r="36" spans="9:34" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N36" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O36" s="66"/>
       <c r="P36" s="67"/>
@@ -22606,7 +19941,7 @@
       <c r="T36" s="67"/>
       <c r="U36" s="68"/>
       <c r="AA36" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB36" s="66"/>
       <c r="AC36" s="67"/>
@@ -22615,6 +19950,9 @@
       <c r="AF36" s="67"/>
       <c r="AG36" s="67"/>
       <c r="AH36" s="68"/>
+    </row>
+    <row r="59" spans="52:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AZ59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -22647,13 +19985,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B4563-B9B2-4E63-9055-2BF4A19DC52A}">
+  <sheetPr codeName="Sheet3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:AO1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BY22" sqref="BX22:BY22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="3.375" style="31"/>
+    <col min="4" max="4" width="3.375" style="32"/>
+    <col min="5" max="5" width="3.375" style="33"/>
+    <col min="6" max="6" width="3.375" style="31"/>
+    <col min="7" max="7" width="3.375" style="34"/>
+    <col min="8" max="8" width="3.375" style="32"/>
+    <col min="9" max="9" width="3.375" style="35"/>
+    <col min="10" max="10" width="3.375" style="31"/>
+    <col min="11" max="11" width="3.375" style="32"/>
+    <col min="12" max="12" width="3.375" style="33"/>
+    <col min="13" max="14" width="3.375" style="31"/>
+    <col min="15" max="15" width="3.375" style="34"/>
+    <col min="16" max="16" width="3.375" style="31"/>
+    <col min="17" max="17" width="3.375" style="36"/>
+    <col min="18" max="22" width="3.375" style="31"/>
+    <col min="23" max="23" width="3.375" style="34"/>
+    <col min="24" max="24" width="3.375" style="31"/>
+    <col min="25" max="25" width="3.375" style="36"/>
+    <col min="26" max="30" width="3.375" style="31"/>
+    <col min="31" max="31" width="3.375" style="34"/>
+    <col min="32" max="32" width="3.375" style="31"/>
+    <col min="33" max="33" width="3.375" style="36"/>
+    <col min="34" max="38" width="3.375" style="31"/>
+    <col min="39" max="39" width="3.375" style="34"/>
+    <col min="40" max="40" width="3.375" style="31"/>
+    <col min="41" max="41" width="3.375" style="36"/>
+    <col min="42" max="16384" width="3.375" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562EA9A5-5BAD-4E52-B05D-F7DB8889D20B}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B2:L17"/>
+  <dimension ref="B2:U24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22679,13 +20070,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:21" x14ac:dyDescent="0.4">
       <c r="D17" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="16" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="U24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/tabe.xlsx
+++ b/tabe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F0465\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC4250-29FB-4E64-9834-E2BD47BE8FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4061279F-0EEF-46DE-AF55-E45B6FB848A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{9D00AE84-927D-49F7-A44A-E9E94149C6D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{9D00AE84-927D-49F7-A44A-E9E94149C6D0}"/>
   </bookViews>
   <sheets>
     <sheet name="実装機能" sheetId="16" r:id="rId1"/>
@@ -7948,23 +7948,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="図 74">
+        <xdr:cNvPr id="73" name="図 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF8B4AB-BB94-4711-8D25-E6B19185070E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1477CC30-7950-4398-A95B-018A05E3F190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7987,8 +7987,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1158875" y="2540000"/>
-          <a:ext cx="10620375" cy="7153275"/>
+          <a:off x="3476625" y="1079500"/>
+          <a:ext cx="12865100" cy="8582025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13222,23 +13222,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>149680</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>168729</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>220435</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="図 137">
+        <xdr:cNvPr id="139" name="図 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B900A32-D579-413E-8702-E0F0C91BE25F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FE1412-EFCF-401C-892E-C22F5074C110}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13261,8 +13261,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3143251" y="68035"/>
-          <a:ext cx="8455478" cy="7255329"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12962165" cy="7255328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17757,7 +17757,7 @@
   <dimension ref="B1:CP70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CP30" sqref="CP30"/>
+      <selection activeCell="CN31" sqref="CN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -18156,6 +18156,7 @@
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
       <c r="U16" s="49"/>
+      <c r="AH16"/>
     </row>
     <row r="17" spans="9:94" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="9:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -19213,11 +19214,28 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="O2:U4"/>
-    <mergeCell ref="O6:U8"/>
-    <mergeCell ref="O14:U16"/>
-    <mergeCell ref="O18:U20"/>
+    <mergeCell ref="BO42:BU44"/>
+    <mergeCell ref="AB10:AH12"/>
+    <mergeCell ref="AO10:AU12"/>
+    <mergeCell ref="BB10:BH12"/>
+    <mergeCell ref="BB30:BH32"/>
+    <mergeCell ref="BB42:BH44"/>
+    <mergeCell ref="AB38:AH40"/>
+    <mergeCell ref="AO38:AU40"/>
+    <mergeCell ref="AB18:AH20"/>
+    <mergeCell ref="AO18:AU20"/>
+    <mergeCell ref="AB26:AH28"/>
+    <mergeCell ref="BB18:BH20"/>
+    <mergeCell ref="BB22:BH24"/>
+    <mergeCell ref="AB30:AH32"/>
+    <mergeCell ref="AO30:AU32"/>
+    <mergeCell ref="AO58:AU60"/>
+    <mergeCell ref="BB58:BH60"/>
+    <mergeCell ref="AO62:AU64"/>
+    <mergeCell ref="BB62:BH64"/>
+    <mergeCell ref="BB46:BH48"/>
+    <mergeCell ref="BB50:BH52"/>
+    <mergeCell ref="AO46:AU48"/>
     <mergeCell ref="BO50:BU52"/>
     <mergeCell ref="BB54:BH56"/>
     <mergeCell ref="BO54:BU56"/>
@@ -19234,28 +19252,11 @@
     <mergeCell ref="O42:U44"/>
     <mergeCell ref="AB42:AH44"/>
     <mergeCell ref="AO42:AU44"/>
-    <mergeCell ref="AO58:AU60"/>
-    <mergeCell ref="BB58:BH60"/>
-    <mergeCell ref="AO62:AU64"/>
-    <mergeCell ref="BB62:BH64"/>
-    <mergeCell ref="BB46:BH48"/>
-    <mergeCell ref="BB50:BH52"/>
-    <mergeCell ref="AO46:AU48"/>
-    <mergeCell ref="BO42:BU44"/>
-    <mergeCell ref="AB10:AH12"/>
-    <mergeCell ref="AO10:AU12"/>
-    <mergeCell ref="BB10:BH12"/>
-    <mergeCell ref="BB30:BH32"/>
-    <mergeCell ref="BB42:BH44"/>
-    <mergeCell ref="AB38:AH40"/>
-    <mergeCell ref="AO38:AU40"/>
-    <mergeCell ref="AB18:AH20"/>
-    <mergeCell ref="AO18:AU20"/>
-    <mergeCell ref="AB26:AH28"/>
-    <mergeCell ref="BB18:BH20"/>
-    <mergeCell ref="BB22:BH24"/>
-    <mergeCell ref="AB30:AH32"/>
-    <mergeCell ref="AO30:AU32"/>
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="O2:U4"/>
+    <mergeCell ref="O6:U8"/>
+    <mergeCell ref="O14:U16"/>
+    <mergeCell ref="O18:U20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19269,10 +19270,10 @@
   <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BH59"/>
+  <dimension ref="A1:BM59"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BI27" sqref="BI27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BF25" sqref="BF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -19280,8 +19281,8 @@
     <col min="1" max="16384" width="3.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:65" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="60" t="s">
         <v>230</v>
       </c>
@@ -19316,7 +19317,7 @@
       <c r="AG2" s="61"/>
       <c r="AH2" s="62"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="63"/>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
@@ -19339,7 +19340,7 @@
       <c r="AG3" s="64"/>
       <c r="AH3" s="65"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="17"/>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -19367,8 +19368,8 @@
       <c r="AG4" s="67"/>
       <c r="AH4" s="68"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:65" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I6" s="4" t="s">
         <v>235</v>
       </c>
@@ -19418,7 +19419,7 @@
       <c r="BG6" s="61"/>
       <c r="BH6" s="62"/>
     </row>
-    <row r="7" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O7" s="63"/>
       <c r="P7" s="64"/>
       <c r="Q7" s="64"/>
@@ -19448,7 +19449,7 @@
       <c r="BG7" s="64"/>
       <c r="BH7" s="65"/>
     </row>
-    <row r="8" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N8" s="17" t="s">
         <v>207</v>
       </c>
@@ -19488,8 +19489,8 @@
       <c r="BG8" s="67"/>
       <c r="BH8" s="68"/>
     </row>
-    <row r="9" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:65" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AI10" s="4" t="s">
         <v>236</v>
       </c>
@@ -19515,7 +19516,7 @@
       <c r="BG10" s="61"/>
       <c r="BH10" s="62"/>
     </row>
-    <row r="11" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AO11" s="63"/>
       <c r="AP11" s="64"/>
       <c r="AQ11" s="64"/>
@@ -19530,8 +19531,9 @@
       <c r="BF11" s="64"/>
       <c r="BG11" s="64"/>
       <c r="BH11" s="65"/>
-    </row>
-    <row r="12" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="BM11"/>
+    </row>
+    <row r="12" spans="1:65" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AN12" s="17" t="s">
         <v>217</v>
       </c>
@@ -19551,8 +19553,8 @@
       <c r="BG12" s="67"/>
       <c r="BH12" s="68"/>
     </row>
-    <row r="13" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:65" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I14" s="4" t="s">
         <v>238</v>
       </c>
@@ -19578,7 +19580,7 @@
       <c r="AG14" s="61"/>
       <c r="AH14" s="62"/>
     </row>
-    <row r="15" spans="1:60" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:65" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O15" s="63"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="64"/>
@@ -19594,7 +19596,7 @@
       <c r="AG15" s="64"/>
       <c r="AH15" s="65"/>
     </row>
-    <row r="16" spans="1:60" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="N16" s="17" t="s">
         <v>207</v>
       </c>
@@ -19864,6 +19866,7 @@
       <c r="S30" s="61"/>
       <c r="T30" s="61"/>
       <c r="U30" s="62"/>
+      <c r="AO30"/>
     </row>
     <row r="31" spans="9:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O31" s="63"/>
@@ -19956,18 +19959,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O34:U36"/>
-    <mergeCell ref="AB34:AH36"/>
-    <mergeCell ref="AB22:AH24"/>
-    <mergeCell ref="AO22:AU24"/>
-    <mergeCell ref="O26:U28"/>
-    <mergeCell ref="AB26:AH28"/>
-    <mergeCell ref="O30:U32"/>
-    <mergeCell ref="BB6:BH8"/>
-    <mergeCell ref="AO10:AU12"/>
-    <mergeCell ref="BB10:BH12"/>
-    <mergeCell ref="O14:U16"/>
-    <mergeCell ref="AB14:AH16"/>
     <mergeCell ref="O18:U20"/>
     <mergeCell ref="AB18:AH20"/>
     <mergeCell ref="AO18:AU20"/>
@@ -19977,6 +19968,18 @@
     <mergeCell ref="O6:U8"/>
     <mergeCell ref="AB6:AH8"/>
     <mergeCell ref="AO6:AU8"/>
+    <mergeCell ref="BB6:BH8"/>
+    <mergeCell ref="AO10:AU12"/>
+    <mergeCell ref="BB10:BH12"/>
+    <mergeCell ref="O14:U16"/>
+    <mergeCell ref="AB14:AH16"/>
+    <mergeCell ref="O34:U36"/>
+    <mergeCell ref="AB34:AH36"/>
+    <mergeCell ref="AB22:AH24"/>
+    <mergeCell ref="AO22:AU24"/>
+    <mergeCell ref="O26:U28"/>
+    <mergeCell ref="AB26:AH28"/>
+    <mergeCell ref="O30:U32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19992,7 +19995,7 @@
   </sheetPr>
   <dimension ref="C1:AO1"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BY22" sqref="BX22:BY22"/>
     </sheetView>
   </sheetViews>
@@ -20043,7 +20046,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>

--- a/tabe.xlsx
+++ b/tabe.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F0465\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4061279F-0EEF-46DE-AF55-E45B6FB848A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07D8DD1-B0EE-4B82-AA88-B71B3E87F4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{9D00AE84-927D-49F7-A44A-E9E94149C6D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{9D00AE84-927D-49F7-A44A-E9E94149C6D0}"/>
   </bookViews>
   <sheets>
     <sheet name="実装機能" sheetId="16" r:id="rId1"/>
     <sheet name="機能設計" sheetId="32" r:id="rId2"/>
-    <sheet name="非機能要件" sheetId="33" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="44" r:id="rId4"/>
-    <sheet name="画面一覧" sheetId="18" r:id="rId5"/>
-    <sheet name="画面遷移 (会員)" sheetId="37" r:id="rId6"/>
-    <sheet name="画面遷移 (管理者)" sheetId="39" r:id="rId7"/>
-    <sheet name="ER図" sheetId="24" r:id="rId8"/>
-    <sheet name="フローチャート" sheetId="43" r:id="rId9"/>
-    <sheet name="データベース設計" sheetId="8" r:id="rId10"/>
-    <sheet name="ファイル一覧(会員)" sheetId="41" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="46" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="47" r:id="rId4"/>
+    <sheet name="非機能要件" sheetId="33" r:id="rId5"/>
+    <sheet name="画面一覧" sheetId="18" r:id="rId6"/>
+    <sheet name="画面遷移 (会員)" sheetId="37" r:id="rId7"/>
+    <sheet name="画面遷移 (管理者)" sheetId="39" r:id="rId8"/>
+    <sheet name="ER図" sheetId="24" r:id="rId9"/>
+    <sheet name="フローチャート" sheetId="43" r:id="rId10"/>
+    <sheet name="データベース設計" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="48" r:id="rId12"/>
+    <sheet name="ファイル一覧(会員)" sheetId="41" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'画面遷移 (会員)'!$A$1:$CH$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'画面遷移 (会員)'!$A$1:$CH$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="461">
   <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
@@ -3893,13 +3895,1848 @@
       <t>カクニンガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報編集機能</t>
+    <rPh sb="0" eb="4">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ヘンシュウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約一覧機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有料会員</t>
+    <rPh sb="0" eb="4">
+      <t>ユウリョウカイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入り一覧機能</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワーリセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員管理</t>
+    <rPh sb="0" eb="4">
+      <t>カイインカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗ページ</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索機能</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞り込み機能</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー表示機能</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員管理</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決済機能</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレジット情報の編集機能</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解約機能</t>
+    <rPh sb="0" eb="4">
+      <t>カイヤクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中項目</t>
+    <rPh sb="0" eb="3">
+      <t>チュウコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能項目</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証機能</t>
+    <rPh sb="0" eb="4">
+      <t>ニンショウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録機能</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除機能</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧機能</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細機能</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧機能</t>
+    <rPh sb="0" eb="4">
+      <t>イチランキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/15~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/22~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/29~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8/5~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8/12~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~8/24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面
+一覧画面では、ユーザーが店舗をざっと見て選びやすいように、基本的な情報を表示します。以下のカラムが適切です：
+image_name: 店舗の画像（サムネイル）
+name: 店舗名
+address: 住所（市区町村程度まで）
+opening_time: 開店時間
+close_time: 閉店時間
+budget_min: 最低予算
+budget_max: 最高予算
+categories: カテゴリー（例：和食、イタリアンなど）
+詳細画面
+詳細画面では、ユーザーが店舗についてより詳しい情報を確認できるようにします。以下のカラムが適切です：
+image_name: 店舗の画像（大きめの画像）
+name: 店舗名
+address: 住所（詳細な住所）
+postal_code: 郵便番号
+description: 店舗の説明
+opening_time: 開店時間
+close_time: 閉店時間
+regular_holiday: 定休日
+budget_min: 最低予算
+budget_max: 最高予算
+categories: カテゴリー（例：和食、イタリアンなど）
+contact_info: 連絡先情報（電話番号やメールアドレスなど）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"card-contents"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:each</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"restaurant : ${restaurants}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"image-container"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>img</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"@{${restaurant.imageName}}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>alt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"店舗画像"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"detail-container"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"${restaurant.name}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>店舗名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"${restaurant.address}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>東京都新宿区西新宿1-1-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>カテゴリー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"${restaurant.description}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>この店はとても素晴らしいです。駅から○○分でアクセスでき、閑静な住宅街にあります。最高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>¥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"${restaurant.budgetMin}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - ¥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"${restaurant.budgetMax}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"${restaurant.budgetMin}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>8:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ~ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>th:text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"${restaurant.budgetMax}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>19:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>定休日：水曜日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3954,8 +5791,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3980,8 +5847,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -4121,13 +6000,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4336,6 +6332,123 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4344,9 +6457,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF002F8E"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FF00FFCC"/>
-      <color rgb="FF002F8E"/>
     </mruColors>
   </colors>
   <extLst>
@@ -13222,16 +15335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>103415</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13261,7 +15374,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="1020536" y="1142999"/>
           <a:ext cx="12962165" cy="7255328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15122,14 +17235,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562EA9A5-5BAD-4E52-B05D-F7DB8889D20B}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="B2:U24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="16" customWidth="1"/>
+    <col min="2" max="5" width="9" style="16"/>
+    <col min="6" max="7" width="7.375" style="16" customWidth="1"/>
+    <col min="8" max="11" width="9" style="16"/>
+    <col min="12" max="13" width="7.375" style="16" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="F13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="D17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.4">
+      <c r="U24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DAFD53-5D04-4CC0-86B6-196174E06058}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16420,13 +18583,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EE884-7768-4286-8EA6-59568C0AB333}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="101.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="107" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618CE8C-CA72-4F71-B5FB-2C531F7B8D5F}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16784,8 +18969,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17319,12 +19504,940 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B865E092-1D1C-4DC0-B251-F1AD2D172F79}">
+  <sheetPr>
+    <tabColor rgb="FF002F8E"/>
+  </sheetPr>
+  <dimension ref="B1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="70" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E1" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="90" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" s="90" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>442</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="73"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" s="87"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="73"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="73"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="73"/>
+      <c r="C7" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="73"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="74"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" s="81"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="38"/>
+      <c r="C13" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="87"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="75"/>
+      <c r="C18" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="82"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="75"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="82"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="75"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="82"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="75"/>
+      <c r="C21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="75"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="75"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="75"/>
+      <c r="C24" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" s="75"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="75"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="75" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="75"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="75"/>
+      <c r="C29" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="75"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="75"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B32" s="75"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="75"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="75"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="75"/>
+      <c r="C35" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="75"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="75"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="75"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="75"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="75"/>
+      <c r="C40" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="75"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B27:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B15:B26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C8060F-87E7-48F9-B73B-68D3F6007A6C}">
+  <sheetPr>
+    <tabColor rgb="FF002F8E"/>
+  </sheetPr>
+  <dimension ref="F6:AK19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="6" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="AK6" s="108" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="94"/>
+      <c r="Q7" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="106"/>
+      <c r="AK7" s="108" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="97"/>
+      <c r="AK8" s="108" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97"/>
+      <c r="Q9" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF9" s="76" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="108" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="97"/>
+      <c r="AK10" s="108" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="97"/>
+      <c r="Q11" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="108" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="97"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="108" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
+      <c r="AK13" s="108" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="97"/>
+      <c r="Q14" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="V14" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="106"/>
+      <c r="AK14" s="108" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="97"/>
+      <c r="AK15" s="108" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="6:37" x14ac:dyDescent="0.4">
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="100"/>
+      <c r="Q16" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="V16" s="76" t="s">
+        <v>384</v>
+      </c>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="106"/>
+      <c r="AK16" s="108" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="37:37" x14ac:dyDescent="0.4">
+      <c r="AK17" s="108" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="37:37" x14ac:dyDescent="0.4">
+      <c r="AK18" s="108" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="37:37" x14ac:dyDescent="0.4">
+      <c r="AK19" s="108" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Q11:AJ12"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="Q9:AD9"/>
+    <mergeCell ref="Q7:W7"/>
+    <mergeCell ref="AF9:AJ9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB86D0B7-85A2-442A-AA38-720A6BFDA188}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17379,23 +20492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B089B0A-E8A0-4ED9-814E-BAF75A8E5AF8}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC5630-D3FD-4FFE-8F60-E670C172D8C9}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
@@ -17403,8 +20500,8 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17749,15 +20846,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8958814-57BB-4A9B-B631-66A5BC3FEEAC}">
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CP70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CN31" sqref="CN31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -19214,28 +22311,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="BO42:BU44"/>
-    <mergeCell ref="AB10:AH12"/>
-    <mergeCell ref="AO10:AU12"/>
-    <mergeCell ref="BB10:BH12"/>
-    <mergeCell ref="BB30:BH32"/>
-    <mergeCell ref="BB42:BH44"/>
-    <mergeCell ref="AB38:AH40"/>
-    <mergeCell ref="AO38:AU40"/>
-    <mergeCell ref="AB18:AH20"/>
-    <mergeCell ref="AO18:AU20"/>
-    <mergeCell ref="AB26:AH28"/>
-    <mergeCell ref="BB18:BH20"/>
-    <mergeCell ref="BB22:BH24"/>
-    <mergeCell ref="AB30:AH32"/>
-    <mergeCell ref="AO30:AU32"/>
-    <mergeCell ref="AO58:AU60"/>
-    <mergeCell ref="BB58:BH60"/>
-    <mergeCell ref="AO62:AU64"/>
-    <mergeCell ref="BB62:BH64"/>
-    <mergeCell ref="BB46:BH48"/>
-    <mergeCell ref="BB50:BH52"/>
-    <mergeCell ref="AO46:AU48"/>
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="O2:U4"/>
+    <mergeCell ref="O6:U8"/>
+    <mergeCell ref="O14:U16"/>
+    <mergeCell ref="O18:U20"/>
     <mergeCell ref="BO50:BU52"/>
     <mergeCell ref="BB54:BH56"/>
     <mergeCell ref="BO54:BU56"/>
@@ -19252,11 +22332,28 @@
     <mergeCell ref="O42:U44"/>
     <mergeCell ref="AB42:AH44"/>
     <mergeCell ref="AO42:AU44"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="O2:U4"/>
-    <mergeCell ref="O6:U8"/>
-    <mergeCell ref="O14:U16"/>
-    <mergeCell ref="O18:U20"/>
+    <mergeCell ref="AO58:AU60"/>
+    <mergeCell ref="BB58:BH60"/>
+    <mergeCell ref="AO62:AU64"/>
+    <mergeCell ref="BB62:BH64"/>
+    <mergeCell ref="BB46:BH48"/>
+    <mergeCell ref="BB50:BH52"/>
+    <mergeCell ref="AO46:AU48"/>
+    <mergeCell ref="BO42:BU44"/>
+    <mergeCell ref="AB10:AH12"/>
+    <mergeCell ref="AO10:AU12"/>
+    <mergeCell ref="BB10:BH12"/>
+    <mergeCell ref="BB30:BH32"/>
+    <mergeCell ref="BB42:BH44"/>
+    <mergeCell ref="AB38:AH40"/>
+    <mergeCell ref="AO38:AU40"/>
+    <mergeCell ref="AB18:AH20"/>
+    <mergeCell ref="AO18:AU20"/>
+    <mergeCell ref="AB26:AH28"/>
+    <mergeCell ref="BB18:BH20"/>
+    <mergeCell ref="BB22:BH24"/>
+    <mergeCell ref="AB30:AH32"/>
+    <mergeCell ref="AO30:AU32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19265,7 +22362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFAE609-A4DE-4FD6-A9FE-BA1A11CBB44D}">
   <sheetPr codeName="Sheet9">
     <pageSetUpPr fitToPage="1"/>
@@ -19959,6 +23056,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O34:U36"/>
+    <mergeCell ref="AB34:AH36"/>
+    <mergeCell ref="AB22:AH24"/>
+    <mergeCell ref="AO22:AU24"/>
+    <mergeCell ref="O26:U28"/>
+    <mergeCell ref="AB26:AH28"/>
+    <mergeCell ref="O30:U32"/>
+    <mergeCell ref="BB6:BH8"/>
+    <mergeCell ref="AO10:AU12"/>
+    <mergeCell ref="BB10:BH12"/>
+    <mergeCell ref="O14:U16"/>
+    <mergeCell ref="AB14:AH16"/>
     <mergeCell ref="O18:U20"/>
     <mergeCell ref="AB18:AH20"/>
     <mergeCell ref="AO18:AU20"/>
@@ -19968,18 +23077,6 @@
     <mergeCell ref="O6:U8"/>
     <mergeCell ref="AB6:AH8"/>
     <mergeCell ref="AO6:AU8"/>
-    <mergeCell ref="BB6:BH8"/>
-    <mergeCell ref="AO10:AU12"/>
-    <mergeCell ref="BB10:BH12"/>
-    <mergeCell ref="O14:U16"/>
-    <mergeCell ref="AB14:AH16"/>
-    <mergeCell ref="O34:U36"/>
-    <mergeCell ref="AB34:AH36"/>
-    <mergeCell ref="AB22:AH24"/>
-    <mergeCell ref="AO22:AU24"/>
-    <mergeCell ref="O26:U28"/>
-    <mergeCell ref="AB26:AH28"/>
-    <mergeCell ref="O30:U32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19988,14 +23085,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B4563-B9B2-4E63-9055-2BF4A19DC52A}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:AO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BY22" sqref="BX22:BY22"/>
     </sheetView>
   </sheetViews>
@@ -20039,54 +23136,4 @@
   <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562EA9A5-5BAD-4E52-B05D-F7DB8889D20B}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="B2:U24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.25" style="16" customWidth="1"/>
-    <col min="2" max="5" width="9" style="16"/>
-    <col min="6" max="7" width="7.375" style="16" customWidth="1"/>
-    <col min="8" max="11" width="9" style="16"/>
-    <col min="12" max="13" width="7.375" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="F13" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.4">
-      <c r="D17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.4">
-      <c r="U24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>